--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J131"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>608925629</v>
+        <v>611014113</v>
       </c>
       <c r="B2" s="2">
-        <v>46035.31548611111</v>
+        <v>46042.40130787037</v>
       </c>
       <c r="C2" s="2">
-        <v>46036.95833333333</v>
+        <v>46043.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,109 +515,109 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>56.7</v>
+        <v>131.26</v>
       </c>
       <c r="H2">
-        <v>226.8</v>
+        <v>131.26</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>608923859</v>
+        <v>610949467</v>
       </c>
       <c r="B3" s="2">
-        <v>46035.30521990741</v>
+        <v>46041.33980324074</v>
       </c>
       <c r="C3" s="2">
-        <v>46035.95833333333</v>
+        <v>46042.95833333333</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>302.19</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.86037</v>
+        <v>132.2</v>
       </c>
       <c r="H3">
-        <v>260</v>
+        <v>132.2</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>607897752</v>
+        <v>608925629</v>
       </c>
       <c r="B4" s="2">
-        <v>46031.419953703706</v>
+        <v>46035.31548611111</v>
       </c>
       <c r="C4" s="2">
-        <v>46034.95833333333</v>
+        <v>46036.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>133.16</v>
+        <v>56.7</v>
       </c>
       <c r="H4">
-        <v>133.16</v>
+        <v>226.8</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>607448850</v>
+        <v>608923859</v>
       </c>
       <c r="B5" s="2">
-        <v>46030.52565972222</v>
+        <v>46035.30521990741</v>
       </c>
       <c r="C5" s="2">
-        <v>46030.95833333333</v>
+        <v>46035.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>174.44</v>
+        <v>302.19</v>
       </c>
       <c r="G5">
-        <v>0.8599</v>
+        <v>0.86037</v>
       </c>
       <c r="H5">
-        <v>150.01</v>
+        <v>260</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>604650426</v>
+        <v>607897752</v>
       </c>
       <c r="B6" s="2">
-        <v>46021.38538194445</v>
+        <v>46031.419953703706</v>
       </c>
       <c r="C6" s="2">
-        <v>46023.95833333333</v>
+        <v>46034.95833333333</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>54.19</v>
+        <v>133.16</v>
       </c>
       <c r="H6">
-        <v>108.38</v>
+        <v>133.16</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -660,48 +660,48 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>598550485</v>
+        <v>607448850</v>
       </c>
       <c r="B7" s="2">
-        <v>46001.63391203704</v>
+        <v>46030.52565972222</v>
       </c>
       <c r="C7" s="2">
-        <v>46002.95833333333</v>
+        <v>46030.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>174.44</v>
       </c>
       <c r="G7">
-        <v>437.25</v>
+        <v>0.8599</v>
       </c>
       <c r="H7">
-        <v>437.25</v>
+        <v>150.01</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>596219726</v>
+        <v>604650426</v>
       </c>
       <c r="B8" s="2">
-        <v>45994.43467592592</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C8" s="2">
-        <v>45995.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -710,10 +710,10 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>53.57</v>
+        <v>54.19</v>
       </c>
       <c r="H8">
-        <v>107.14</v>
+        <v>108.38</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -724,45 +724,45 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>595820593</v>
+        <v>598550485</v>
       </c>
       <c r="B9" s="2">
-        <v>45993.61094907408</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C9" s="2">
-        <v>45993.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.1572</v>
+        <v>437.25</v>
       </c>
       <c r="H9">
-        <v>347.16</v>
+        <v>437.25</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>592858794</v>
+        <v>596219726</v>
       </c>
       <c r="B10" s="2">
-        <v>45982.31758101852</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C10" s="2">
-        <v>45984.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -771,97 +771,97 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>138.08</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0.86907</v>
+        <v>53.57</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>107.14</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>592858764</v>
+        <v>595820593</v>
       </c>
       <c r="B11" s="2">
-        <v>45982.31736111111</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C11" s="2">
-        <v>45985.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G11">
-        <v>125.7</v>
+        <v>1.1572</v>
       </c>
       <c r="H11">
-        <v>125.7</v>
+        <v>347.16</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>591521660</v>
+        <v>592858794</v>
       </c>
       <c r="B12" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C12" s="2">
-        <v>45980.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G12">
-        <v>51.58</v>
+        <v>0.86907</v>
       </c>
       <c r="H12">
-        <v>51.58</v>
+        <v>120</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>591521571</v>
+        <v>592858764</v>
       </c>
       <c r="B13" s="2">
-        <v>45979.40299768519</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C13" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="H13">
-        <v>127.64</v>
+        <v>125.7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>589647638</v>
+        <v>591521660</v>
       </c>
       <c r="B14" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C14" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -902,56 +902,56 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="H14">
-        <v>131.88</v>
+        <v>51.58</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>589647623</v>
+        <v>591521571</v>
       </c>
       <c r="B15" s="2">
-        <v>45973.371666666666</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C15" s="2">
-        <v>45973.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.86743</v>
+        <v>127.64</v>
       </c>
       <c r="H15">
-        <v>120</v>
+        <v>127.64</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>589647528</v>
+        <v>589647638</v>
       </c>
       <c r="B16" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C16" s="2">
         <v>45974.95833333333</v>
@@ -966,62 +966,62 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="H16">
-        <v>51.88</v>
+        <v>131.88</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>587179374</v>
+        <v>589647623</v>
       </c>
       <c r="B17" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C17" s="2">
-        <v>45966.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G17">
-        <v>50.67</v>
+        <v>0.86743</v>
       </c>
       <c r="H17">
-        <v>50.67</v>
+        <v>120</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>586793234</v>
+        <v>589647528</v>
       </c>
       <c r="B18" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C18" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1030,27 +1030,27 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="H18">
-        <v>130.9</v>
+        <v>51.88</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>586792895</v>
+        <v>587179374</v>
       </c>
       <c r="B19" s="2">
-        <v>45964.60346064815</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C19" s="2">
-        <v>45964.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1059,30 +1059,30 @@
         <v>11</v>
       </c>
       <c r="F19">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.87185</v>
+        <v>50.67</v>
       </c>
       <c r="H19">
-        <v>249.99</v>
+        <v>50.67</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>585309488</v>
+        <v>586793234</v>
       </c>
       <c r="B20" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C20" s="2">
-        <v>45960.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1094,62 +1094,62 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="H20">
-        <v>51.01</v>
+        <v>130.9</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>581709074</v>
+        <v>586792895</v>
       </c>
       <c r="B21" s="2">
-        <v>45947.35291666667</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C21" s="2">
-        <v>45951</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G21">
-        <v>49.61</v>
+        <v>0.87185</v>
       </c>
       <c r="H21">
-        <v>49.61</v>
+        <v>249.99</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>581709060</v>
+        <v>585309488</v>
       </c>
       <c r="B22" s="2">
-        <v>45947.35277777778</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C22" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1158,30 +1158,30 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="H22">
-        <v>125.58</v>
+        <v>51.01</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>581269382</v>
+        <v>581709074</v>
       </c>
       <c r="B23" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C23" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1190,62 +1190,62 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="H23">
-        <v>50.94</v>
+        <v>49.61</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>580169893</v>
+        <v>581709060</v>
       </c>
       <c r="B24" s="2">
-        <v>45943.423321759255</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C24" s="2">
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8656</v>
+        <v>125.58</v>
       </c>
       <c r="H24">
-        <v>70</v>
+        <v>125.58</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>580169868</v>
+        <v>581269382</v>
       </c>
       <c r="B25" s="2">
-        <v>45943.42288194444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C25" s="2">
-        <v>45945</v>
+        <v>45950</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1254,10 +1254,10 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="H25">
-        <v>53.65</v>
+        <v>50.94</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>580169327</v>
+        <v>580169893</v>
       </c>
       <c r="B26" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C26" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1283,33 +1283,33 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G26">
-        <v>127.32</v>
+        <v>0.8656</v>
       </c>
       <c r="H26">
-        <v>127.32</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>579211549</v>
+        <v>580169868</v>
       </c>
       <c r="B27" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C27" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -1318,27 +1318,27 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="H27">
-        <v>129.08</v>
+        <v>53.65</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>577313732</v>
+        <v>580169327</v>
       </c>
       <c r="B28" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C28" s="2">
-        <v>45937</v>
+        <v>45945</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1347,13 +1347,13 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>52.65</v>
+        <v>127.32</v>
       </c>
       <c r="H28">
-        <v>105.3</v>
+        <v>127.32</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>576413456</v>
+        <v>579211549</v>
       </c>
       <c r="B29" s="2">
-        <v>45931.44907407407</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C29" s="2">
-        <v>45933</v>
+        <v>45943</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1382,27 +1382,27 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="H29">
-        <v>51.62</v>
+        <v>129.08</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>576410571</v>
+        <v>577313732</v>
       </c>
       <c r="B30" s="2">
-        <v>45931.43001157408</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C30" s="2">
-        <v>45932</v>
+        <v>45937</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1411,33 +1411,33 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <v>116.85</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0.85583</v>
+        <v>52.65</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>105.3</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>575554915</v>
+        <v>576413456</v>
       </c>
       <c r="B31" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C31" s="2">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1446,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="H31">
-        <v>51.47</v>
+        <v>51.62</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>573400676</v>
+        <v>576410571</v>
       </c>
       <c r="B32" s="2">
-        <v>45922.33627314815</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C32" s="2">
-        <v>45924</v>
+        <v>45932</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1475,33 +1475,33 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G32">
-        <v>127.36</v>
+        <v>0.85583</v>
       </c>
       <c r="H32">
-        <v>127.36</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>573399341</v>
+        <v>575554915</v>
       </c>
       <c r="B33" s="2">
-        <v>45922.324120370366</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C33" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="H33">
-        <v>51</v>
+        <v>51.47</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1524,48 +1524,48 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>568717926</v>
+        <v>573400676</v>
       </c>
       <c r="B34" s="2">
-        <v>45905.5246875</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C34" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.85539</v>
+        <v>127.36</v>
       </c>
       <c r="H34">
-        <v>106.92</v>
+        <v>127.36</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>567931751</v>
+        <v>573399341</v>
       </c>
       <c r="B35" s="2">
-        <v>45903.333657407406</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C35" s="2">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1574,42 +1574,42 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="H35">
-        <v>123.16</v>
+        <v>51</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>566723916</v>
+        <v>568717926</v>
       </c>
       <c r="B36" s="2">
-        <v>45897.62657407408</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C36" s="2">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>290.69</v>
+        <v>125</v>
       </c>
       <c r="G36">
-        <v>0.86002</v>
+        <v>0.85539</v>
       </c>
       <c r="H36">
-        <v>250</v>
+        <v>106.92</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>564426812</v>
+        <v>567931751</v>
       </c>
       <c r="B37" s="2">
-        <v>45889.61331018519</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C37" s="2">
-        <v>45891</v>
+        <v>45905</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="H37">
-        <v>121.62</v>
+        <v>123.16</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1652,28 +1652,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>564420621</v>
+        <v>566723916</v>
       </c>
       <c r="B38" s="2">
-        <v>45889.60018518519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C38" s="2">
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>127.71</v>
+        <v>290.69</v>
       </c>
       <c r="G38">
-        <v>0.86135</v>
+        <v>0.86002</v>
       </c>
       <c r="H38">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1684,77 +1684,77 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>555657178</v>
+        <v>564426812</v>
       </c>
       <c r="B39" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C39" s="2">
-        <v>45860</v>
+        <v>45891</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.85771</v>
+        <v>121.62</v>
       </c>
       <c r="H39">
-        <v>85.77</v>
+        <v>121.62</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>555654532</v>
+        <v>564420621</v>
       </c>
       <c r="B40" s="2">
-        <v>45859.465474537035</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C40" s="2">
-        <v>45861</v>
+        <v>45890</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>127.71</v>
       </c>
       <c r="G40">
-        <v>395</v>
+        <v>0.86135</v>
       </c>
       <c r="H40">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>551218217</v>
+        <v>555657178</v>
       </c>
       <c r="B41" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C41" s="2">
-        <v>45845</v>
+        <v>45860</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1763,94 +1763,94 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G41">
-        <v>119.16</v>
+        <v>0.85771</v>
       </c>
       <c r="H41">
-        <v>119.16</v>
+        <v>85.77</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>551216497</v>
+        <v>555654532</v>
       </c>
       <c r="B42" s="2">
-        <v>45841.35429398148</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C42" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.84741</v>
+        <v>395</v>
       </c>
       <c r="H42">
-        <v>169.48</v>
+        <v>395</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>549290062</v>
+        <v>551218217</v>
       </c>
       <c r="B43" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C43" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.85337</v>
+        <v>119.16</v>
       </c>
       <c r="H43">
-        <v>99.84</v>
+        <v>119.16</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>546584060</v>
+        <v>551216497</v>
       </c>
       <c r="B44" s="2">
-        <v>45824.480104166665</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C44" s="2">
-        <v>45826</v>
+        <v>45845</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -1859,45 +1859,45 @@
         <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G44">
-        <v>114.8</v>
+        <v>0.84741</v>
       </c>
       <c r="H44">
-        <v>114.8</v>
+        <v>169.48</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>546583898</v>
+        <v>549290062</v>
       </c>
       <c r="B45" s="2">
-        <v>45824.47923611111</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C45" s="2">
-        <v>45825</v>
+        <v>45835</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G45">
-        <v>0.86376</v>
+        <v>0.85337</v>
       </c>
       <c r="H45">
-        <v>99.33</v>
+        <v>99.84</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1908,45 +1908,45 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>545459805</v>
+        <v>546584060</v>
       </c>
       <c r="B46" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C46" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.87444</v>
+        <v>114.8</v>
       </c>
       <c r="H46">
-        <v>43.72</v>
+        <v>114.8</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>542145647</v>
+        <v>546583898</v>
       </c>
       <c r="B47" s="2">
-        <v>45807.5672337963</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C47" s="2">
-        <v>45811</v>
+        <v>45825</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -1955,45 +1955,45 @@
         <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G47">
-        <v>112.4</v>
+        <v>0.86376</v>
       </c>
       <c r="H47">
-        <v>112.4</v>
+        <v>99.33</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>541352365</v>
+        <v>545459805</v>
       </c>
       <c r="B48" s="2">
-        <v>45805.594560185185</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C48" s="2">
-        <v>45806</v>
+        <v>45820</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>169.82</v>
+        <v>50</v>
       </c>
       <c r="G48">
-        <v>0.88332</v>
+        <v>0.87444</v>
       </c>
       <c r="H48">
-        <v>150.01</v>
+        <v>43.72</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2004,16 +2004,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>540397794</v>
+        <v>542145647</v>
       </c>
       <c r="B49" s="2">
-        <v>45800.4953125</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C49" s="2">
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2022,42 +2022,42 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>110.1385</v>
+        <v>112.4</v>
       </c>
       <c r="H49">
-        <v>110.14</v>
+        <v>112.4</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>539546182</v>
+        <v>541352365</v>
       </c>
       <c r="B50" s="2">
-        <v>45798.38793981481</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C50" s="2">
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>169.82</v>
       </c>
       <c r="G50">
-        <v>0.88321</v>
+        <v>0.88332</v>
       </c>
       <c r="H50">
-        <v>88.32</v>
+        <v>150.01</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2068,16 +2068,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>530748416</v>
+        <v>540397794</v>
       </c>
       <c r="B51" s="2">
-        <v>45777.621458333335</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C51" s="2">
-        <v>45779</v>
+        <v>45805</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2086,42 +2086,42 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>327.9</v>
+        <v>110.1385</v>
       </c>
       <c r="H51">
-        <v>327.9</v>
+        <v>110.14</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>530748345</v>
+        <v>539546182</v>
       </c>
       <c r="B52" s="2">
-        <v>45777.62107638889</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C52" s="2">
-        <v>45778</v>
+        <v>45799</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G52">
-        <v>0.88043</v>
+        <v>0.88321</v>
       </c>
       <c r="H52">
-        <v>26.41</v>
+        <v>88.32</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2132,60 +2132,60 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>530748166</v>
+        <v>530748416</v>
       </c>
       <c r="B53" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C53" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.8804</v>
+        <v>327.9</v>
       </c>
       <c r="H53">
-        <v>264.12</v>
+        <v>327.9</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>528304116</v>
+        <v>530748345</v>
       </c>
       <c r="B54" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C54" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>0.87843</v>
+        <v>0.88043</v>
       </c>
       <c r="H54">
-        <v>74.67</v>
+        <v>26.41</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>525384379</v>
+        <v>530748166</v>
       </c>
       <c r="B55" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C55" s="2">
-        <v>45769</v>
+        <v>45778</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
@@ -2211,45 +2211,45 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G55">
-        <v>101.9</v>
+        <v>0.8804</v>
       </c>
       <c r="H55">
-        <v>101.9</v>
+        <v>264.12</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>525383965</v>
+        <v>528304116</v>
       </c>
       <c r="B56" s="2">
-        <v>45763.634826388894</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C56" s="2">
-        <v>45764</v>
+        <v>45772</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G56">
-        <v>0.87888</v>
+        <v>0.87843</v>
       </c>
       <c r="H56">
-        <v>65.92</v>
+        <v>74.67</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2260,16 +2260,16 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>521135744</v>
+        <v>525384379</v>
       </c>
       <c r="B57" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C57" s="2">
-        <v>45756</v>
+        <v>45769</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -2278,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="H57">
-        <v>95</v>
+        <v>101.9</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2292,28 +2292,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>521115122</v>
+        <v>525383965</v>
       </c>
       <c r="B58" s="2">
-        <v>45754.593506944446</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C58" s="2">
-        <v>45755</v>
+        <v>45764</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>109.66</v>
+        <v>75</v>
       </c>
       <c r="G58">
-        <v>0.91206</v>
+        <v>0.87888</v>
       </c>
       <c r="H58">
-        <v>100.02</v>
+        <v>65.92</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2324,16 +2324,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>519105737</v>
+        <v>521135744</v>
       </c>
       <c r="B59" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C59" s="2">
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2342,42 +2342,42 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>330.5499</v>
+        <v>95</v>
       </c>
       <c r="H59">
-        <v>330.55</v>
+        <v>95</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>519105619</v>
+        <v>521115122</v>
       </c>
       <c r="B60" s="2">
-        <v>45749.575115740736</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C60" s="2">
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>330</v>
+        <v>109.66</v>
       </c>
       <c r="G60">
-        <v>0.92423</v>
+        <v>0.91206</v>
       </c>
       <c r="H60">
-        <v>305</v>
+        <v>100.02</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2388,16 +2388,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>518501268</v>
+        <v>519105737</v>
       </c>
       <c r="B61" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C61" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2406,42 +2406,42 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>106.7</v>
+        <v>330.5499</v>
       </c>
       <c r="H61">
-        <v>106.7</v>
+        <v>330.55</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>518501204</v>
+        <v>519105619</v>
       </c>
       <c r="B62" s="2">
-        <v>45748.342199074075</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C62" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>118.85</v>
+        <v>330</v>
       </c>
       <c r="G62">
-        <v>0.92553</v>
+        <v>0.92423</v>
       </c>
       <c r="H62">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2452,16 +2452,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>510327986</v>
+        <v>518501268</v>
       </c>
       <c r="B63" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C63" s="2">
-        <v>45729.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="H63">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2484,28 +2484,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>510326670</v>
+        <v>518501204</v>
       </c>
       <c r="B64" s="2">
-        <v>45728.43972222222</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C64" s="2">
-        <v>45728.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>114.54</v>
+        <v>118.85</v>
       </c>
       <c r="G64">
-        <v>0.91668</v>
+        <v>0.92553</v>
       </c>
       <c r="H64">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>506086900</v>
+        <v>510327986</v>
       </c>
       <c r="B65" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C65" s="2">
-        <v>45720.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2534,42 +2534,42 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>355.9998</v>
+        <v>107</v>
       </c>
       <c r="H65">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>506086612</v>
+        <v>510326670</v>
       </c>
       <c r="B66" s="2">
-        <v>45719.31418981482</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C66" s="2">
-        <v>45719.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>9.74</v>
+        <v>114.54</v>
       </c>
       <c r="G66">
-        <v>0.96213</v>
+        <v>0.91668</v>
       </c>
       <c r="H66">
-        <v>9.37</v>
+        <v>105</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2580,60 +2580,60 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>506084312</v>
+        <v>506086900</v>
       </c>
       <c r="B67" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C67" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.96116</v>
+        <v>355.9998</v>
       </c>
       <c r="H67">
-        <v>196.27</v>
+        <v>356</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>505408659</v>
+        <v>506086612</v>
       </c>
       <c r="B68" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C68" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>129.21</v>
+        <v>9.74</v>
       </c>
       <c r="G68">
-        <v>0.96171</v>
+        <v>0.96213</v>
       </c>
       <c r="H68">
-        <v>124.26</v>
+        <v>9.37</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>503618898</v>
+        <v>506084312</v>
       </c>
       <c r="B69" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C69" s="2">
-        <v>45714.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -2659,45 +2659,45 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G69">
-        <v>112.86</v>
+        <v>0.96116</v>
       </c>
       <c r="H69">
-        <v>112.86</v>
+        <v>196.27</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>503618686</v>
+        <v>505408659</v>
       </c>
       <c r="B70" s="2">
-        <v>45713.60653935185</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C70" s="2">
-        <v>45713.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>120</v>
+        <v>129.21</v>
       </c>
       <c r="G70">
-        <v>0.9511</v>
+        <v>0.96171</v>
       </c>
       <c r="H70">
-        <v>114.13</v>
+        <v>124.26</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2708,16 +2708,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>499625741</v>
+        <v>503618898</v>
       </c>
       <c r="B71" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C71" s="2">
-        <v>45705.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2726,42 +2726,42 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="H71">
-        <v>375.25</v>
+        <v>112.86</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2.11</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>499590185</v>
+        <v>503618686</v>
       </c>
       <c r="B72" s="2">
-        <v>45702.36454861111</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C72" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>20.96</v>
+        <v>120</v>
       </c>
       <c r="G72">
-        <v>0.95429</v>
+        <v>0.9511</v>
       </c>
       <c r="H72">
-        <v>20</v>
+        <v>114.13</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2772,45 +2772,45 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>498403616</v>
+        <v>499625741</v>
       </c>
       <c r="B73" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C73" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.96693</v>
+        <v>375.25</v>
       </c>
       <c r="H73">
-        <v>99.98</v>
+        <v>375.25</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>494107867</v>
+        <v>499590185</v>
       </c>
       <c r="B74" s="2">
-        <v>45691.58335648148</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C74" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -2819,45 +2819,45 @@
         <v>11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G74">
-        <v>112.9</v>
+        <v>0.95429</v>
       </c>
       <c r="H74">
-        <v>112.9</v>
+        <v>20</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>494049655</v>
+        <v>498403616</v>
       </c>
       <c r="B75" s="2">
-        <v>45691.31773148148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C75" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>307.46</v>
+        <v>103.4</v>
       </c>
       <c r="G75">
-        <v>0.97578</v>
+        <v>0.96693</v>
       </c>
       <c r="H75">
-        <v>300.01</v>
+        <v>99.98</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2868,16 +2868,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>494049572</v>
+        <v>494107867</v>
       </c>
       <c r="B76" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C76" s="2">
         <v>45692.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2886,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="H76">
-        <v>113.34</v>
+        <v>112.9</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>493368805</v>
+        <v>494049655</v>
       </c>
       <c r="B77" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C77" s="2">
         <v>45691.95833333333</v>
@@ -2915,109 +2915,109 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>307.46</v>
       </c>
       <c r="G77">
-        <v>115.9</v>
+        <v>0.97578</v>
       </c>
       <c r="H77">
-        <v>231.8</v>
+        <v>300.01</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>492836969</v>
+        <v>494049572</v>
       </c>
       <c r="B78" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C78" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.95874</v>
+        <v>113.34</v>
       </c>
       <c r="H78">
-        <v>400</v>
+        <v>113.34</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>491075870</v>
+        <v>493368805</v>
       </c>
       <c r="B79" s="2">
-        <v>45684.61530092593</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C79" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>114.4</v>
+        <v>115.9</v>
       </c>
       <c r="H79">
-        <v>114.4</v>
+        <v>231.8</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>491075618</v>
+        <v>492836969</v>
       </c>
       <c r="B80" s="2">
-        <v>45684.61476851851</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C80" s="2">
-        <v>45684.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>115.46</v>
+        <v>417.21</v>
       </c>
       <c r="G80">
-        <v>0.95269</v>
+        <v>0.95874</v>
       </c>
       <c r="H80">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3028,16 +3028,16 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>483911545</v>
+        <v>491075870</v>
       </c>
       <c r="B81" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C81" s="2">
-        <v>45666.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -3046,42 +3046,42 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="H81">
-        <v>360.35</v>
+        <v>114.4</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>483911481</v>
+        <v>491075618</v>
       </c>
       <c r="B82" s="2">
-        <v>45665.44840277778</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C82" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>365</v>
+        <v>115.46</v>
       </c>
       <c r="G82">
-        <v>0.97183</v>
+        <v>0.95269</v>
       </c>
       <c r="H82">
-        <v>354.72</v>
+        <v>110</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3092,60 +3092,60 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>481235383</v>
+        <v>483911545</v>
       </c>
       <c r="B83" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C83" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>112</v>
+        <v>360.35</v>
       </c>
       <c r="H83">
-        <v>224</v>
+        <v>360.35</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>481235152</v>
+        <v>483911481</v>
       </c>
       <c r="B84" s="2">
-        <v>45660.33241898148</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C84" s="2">
-        <v>45662.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>226.2</v>
+        <v>365</v>
       </c>
       <c r="G84">
-        <v>0.97259</v>
+        <v>0.97183</v>
       </c>
       <c r="H84">
-        <v>220</v>
+        <v>354.72</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3156,60 +3156,60 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>476674643</v>
+        <v>481235383</v>
       </c>
       <c r="B85" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C85" s="2">
-        <v>45652.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>355.4</v>
+        <v>112</v>
       </c>
       <c r="H85">
-        <v>355.4</v>
+        <v>224</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>476674604</v>
+        <v>481235152</v>
       </c>
       <c r="B86" s="2">
-        <v>45646.408437499995</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C86" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>215</v>
+        <v>226.2</v>
       </c>
       <c r="G86">
-        <v>0.96264</v>
+        <v>0.97259</v>
       </c>
       <c r="H86">
-        <v>206.97</v>
+        <v>220</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3220,60 +3220,60 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>476670294</v>
+        <v>476674643</v>
       </c>
       <c r="B87" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C87" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>51.32</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0.96299</v>
+        <v>355.4</v>
       </c>
       <c r="H87">
-        <v>49.42</v>
+        <v>355.4</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>476669731</v>
+        <v>476674604</v>
       </c>
       <c r="B88" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C88" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="G88">
-        <v>0.96251</v>
+        <v>0.96264</v>
       </c>
       <c r="H88">
-        <v>57.75</v>
+        <v>206.97</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>476123556</v>
+        <v>476670294</v>
       </c>
       <c r="B89" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C89" s="2">
         <v>45648.95833333333</v>
@@ -3299,45 +3299,45 @@
         <v>11</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G89">
-        <v>112.54</v>
+        <v>0.96299</v>
       </c>
       <c r="H89">
-        <v>112.54</v>
+        <v>49.42</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>476123515</v>
+        <v>476669731</v>
       </c>
       <c r="B90" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C90" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G90">
-        <v>0.96108</v>
+        <v>0.96251</v>
       </c>
       <c r="H90">
-        <v>96.11</v>
+        <v>57.75</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3348,112 +3348,112 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>471357479</v>
+        <v>476123556</v>
       </c>
       <c r="B91" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C91" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="G91">
-        <v>8.3412</v>
+        <v>112.54</v>
       </c>
       <c r="H91">
-        <v>8.34</v>
+        <v>112.54</v>
       </c>
       <c r="I91">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>466623419</v>
+        <v>476123515</v>
       </c>
       <c r="B92" s="2">
-        <v>45622.31217592592</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C92" s="2">
-        <v>45624.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G92">
-        <v>354.5</v>
+        <v>0.96108</v>
       </c>
       <c r="H92">
-        <v>354.5</v>
+        <v>96.11</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>466623402</v>
+        <v>471357479</v>
       </c>
       <c r="B93" s="2">
-        <v>45622.31188657407</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C93" s="2">
-        <v>45622.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F93">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.95389</v>
+        <v>8.3412</v>
       </c>
       <c r="H93">
-        <v>135.24</v>
+        <v>8.34</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>462598648</v>
+        <v>466623419</v>
       </c>
       <c r="B94" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C94" s="2">
-        <v>45614.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -3462,138 +3462,138 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>111.8099</v>
+        <v>354.5</v>
       </c>
       <c r="H94">
-        <v>111.81</v>
+        <v>354.5</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1.47</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>460084933</v>
+        <v>466623402</v>
       </c>
       <c r="B95" s="2">
-        <v>45604.62016203704</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C95" s="2">
-        <v>45607.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G95">
-        <v>8.3836</v>
+        <v>0.95389</v>
       </c>
       <c r="H95">
-        <v>8.38</v>
+        <v>135.24</v>
       </c>
       <c r="I95">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>458847628</v>
+        <v>462598648</v>
       </c>
       <c r="B96" s="2">
-        <v>45602.26765046296</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C96" s="2">
-        <v>45602.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0.93077</v>
+        <v>111.8099</v>
       </c>
       <c r="H96">
-        <v>318</v>
+        <v>111.81</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>449590057</v>
+        <v>460084933</v>
       </c>
       <c r="B97" s="2">
-        <v>45579.62847222222</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C97" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>110.9161</v>
+        <v>8.3836</v>
       </c>
       <c r="H97">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J97">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>449589875</v>
+        <v>458847628</v>
       </c>
       <c r="B98" s="2">
-        <v>45579.628125</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C98" s="2">
-        <v>45580</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
       <c r="F98">
-        <v>35</v>
+        <v>341.65</v>
       </c>
       <c r="G98">
-        <v>0.91628</v>
+        <v>0.93077</v>
       </c>
       <c r="H98">
-        <v>32.07</v>
+        <v>318</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3604,16 +3604,16 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>449589083</v>
+        <v>449590057</v>
       </c>
       <c r="B99" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C99" s="2">
         <v>45581</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>110.9196</v>
+        <v>110.9161</v>
       </c>
       <c r="H99">
         <v>110.92</v>
@@ -3636,48 +3636,48 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>449588246</v>
+        <v>449589875</v>
       </c>
       <c r="B100" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.628125</v>
       </c>
       <c r="C100" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F100">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G100">
-        <v>3.4715</v>
+        <v>0.91628</v>
       </c>
       <c r="H100">
-        <v>149.27</v>
+        <v>32.07</v>
       </c>
       <c r="I100">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>445429841</v>
+        <v>449589083</v>
       </c>
       <c r="B101" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C101" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -3686,62 +3686,62 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>337.65</v>
+        <v>110.9196</v>
       </c>
       <c r="H101">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>445429174</v>
+        <v>449588246</v>
       </c>
       <c r="B102" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C102" s="2">
-        <v>45569</v>
+        <v>45581</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F102">
-        <v>369.23</v>
+        <v>43</v>
       </c>
       <c r="G102">
-        <v>0.90605</v>
+        <v>3.4715</v>
       </c>
       <c r="H102">
-        <v>334.54</v>
+        <v>149.27</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>444353954</v>
+        <v>445429841</v>
       </c>
       <c r="B103" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C103" s="2">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3750,42 +3750,42 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="H103">
-        <v>108.24</v>
+        <v>337.65</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>1.45</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>444310921</v>
+        <v>445429174</v>
       </c>
       <c r="B104" s="2">
-        <v>45566.29953703703</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C104" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>60.56</v>
+        <v>369.23</v>
       </c>
       <c r="G104">
-        <v>0.89984</v>
+        <v>0.90605</v>
       </c>
       <c r="H104">
-        <v>54.49</v>
+        <v>334.54</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -3796,45 +3796,45 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>439936166</v>
+        <v>444353954</v>
       </c>
       <c r="B105" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C105" s="2">
-        <v>45555</v>
+        <v>45568</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>62.0726</v>
+        <v>108.24</v>
       </c>
       <c r="H105">
-        <v>62.07</v>
+        <v>108.24</v>
       </c>
       <c r="I105">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>435165980</v>
+        <v>444310921</v>
       </c>
       <c r="B106" s="2">
-        <v>45541.475370370375</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C106" s="2">
-        <v>45545</v>
+        <v>45567</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
@@ -3843,109 +3843,109 @@
         <v>11</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G106">
-        <v>103.72</v>
+        <v>0.89984</v>
       </c>
       <c r="H106">
-        <v>103.72</v>
+        <v>54.49</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>435165968</v>
+        <v>439936166</v>
       </c>
       <c r="B107" s="2">
-        <v>45541.47508101852</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C107" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F107">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.9011</v>
+        <v>62.0726</v>
       </c>
       <c r="H107">
-        <v>0.19</v>
+        <v>62.07</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>435165951</v>
+        <v>435165980</v>
       </c>
       <c r="B108" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C108" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
       </c>
       <c r="F108">
-        <v>4.42</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.90109</v>
+        <v>103.72</v>
       </c>
       <c r="H108">
-        <v>3.98</v>
+        <v>103.72</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>435165927</v>
+        <v>435165968</v>
       </c>
       <c r="B109" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C109" s="2">
         <v>45544</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>92.77</v>
+        <v>0.21</v>
       </c>
       <c r="G109">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H109">
-        <v>83.59</v>
+        <v>0.19</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3956,45 +3956,45 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>434675474</v>
+        <v>435165951</v>
       </c>
       <c r="B110" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C110" s="2">
         <v>45544</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>4.42</v>
       </c>
       <c r="G110">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H110">
-        <v>29.51</v>
+        <v>3.98</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>434162210</v>
+        <v>435165927</v>
       </c>
       <c r="B111" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C111" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -4003,65 +4003,65 @@
         <v>11</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G111">
-        <v>104.42</v>
+        <v>0.90109</v>
       </c>
       <c r="H111">
-        <v>104.42</v>
+        <v>83.59</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>433696199</v>
+        <v>434675474</v>
       </c>
       <c r="B112" s="2">
-        <v>45538.68898148148</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C112" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D112" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G112">
-        <v>110.122</v>
+        <v>3.689</v>
       </c>
       <c r="H112">
-        <v>110.12</v>
+        <v>29.51</v>
       </c>
       <c r="I112">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>433626785</v>
+        <v>434162210</v>
       </c>
       <c r="B113" s="2">
-        <v>45538.39231481482</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C113" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -4070,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="H113">
-        <v>106.54</v>
+        <v>104.42</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4084,48 +4084,48 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>433626678</v>
+        <v>433696199</v>
       </c>
       <c r="B114" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C114" s="2">
         <v>45539</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F114">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0.90603</v>
+        <v>110.122</v>
       </c>
       <c r="H114">
-        <v>66.96</v>
+        <v>110.12</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>432518350</v>
+        <v>433626785</v>
       </c>
       <c r="B115" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C115" s="2">
-        <v>45533</v>
+        <v>45540</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -4134,27 +4134,27 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="H115">
-        <v>120.88</v>
+        <v>106.54</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>432515426</v>
+        <v>433626678</v>
       </c>
       <c r="B116" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C116" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -4163,173 +4163,173 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G116">
-        <v>106.34</v>
+        <v>0.90603</v>
       </c>
       <c r="H116">
-        <v>106.34</v>
+        <v>66.96</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>432005364</v>
+        <v>432518350</v>
       </c>
       <c r="B117" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C117" s="2">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>3.632</v>
+        <v>120.88</v>
       </c>
       <c r="H117">
-        <v>116.22</v>
+        <v>120.88</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>432003333</v>
+        <v>432515426</v>
       </c>
       <c r="B118" s="2">
-        <v>45532.363020833334</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C118" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>106.74</v>
+        <v>106.34</v>
       </c>
       <c r="H118">
-        <v>213.48</v>
+        <v>106.34</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>432003262</v>
+        <v>432005364</v>
       </c>
       <c r="B119" s="2">
-        <v>45532.361875</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C119" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
-        <v>618.74</v>
+        <v>32</v>
       </c>
       <c r="G119">
-        <v>0.89741</v>
+        <v>3.632</v>
       </c>
       <c r="H119">
-        <v>555.26</v>
+        <v>116.22</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>430366906</v>
+        <v>432003333</v>
       </c>
       <c r="B120" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C120" s="2">
-        <v>45532</v>
+        <v>45534</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>3.6305</v>
+        <v>106.74</v>
       </c>
       <c r="H120">
-        <v>10.89</v>
+        <v>213.48</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>430365249</v>
+        <v>432003262</v>
       </c>
       <c r="B121" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.361875</v>
       </c>
       <c r="C121" s="2">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>4.63</v>
+        <v>618.74</v>
       </c>
       <c r="G121">
-        <v>0.8999</v>
+        <v>0.89741</v>
       </c>
       <c r="H121">
-        <v>4.17</v>
+        <v>555.26</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4340,45 +4340,45 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>428453232</v>
+        <v>430366906</v>
       </c>
       <c r="B122" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C122" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>60.046</v>
+        <v>3.6305</v>
       </c>
       <c r="H122">
-        <v>60.05</v>
+        <v>10.89</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>428444212</v>
+        <v>430365249</v>
       </c>
       <c r="B123" s="2">
-        <v>45523.47152777778</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C123" s="2">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -4387,94 +4387,94 @@
         <v>11</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G123">
-        <v>105.3</v>
+        <v>0.8999</v>
       </c>
       <c r="H123">
-        <v>105.3</v>
+        <v>4.17</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>428437042</v>
+        <v>428453232</v>
       </c>
       <c r="B124" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C124" s="2">
         <v>45524</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>0.90756</v>
+        <v>60.046</v>
       </c>
       <c r="H124">
-        <v>6.49</v>
+        <v>60.05</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>428437005</v>
+        <v>428444212</v>
       </c>
       <c r="B125" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C125" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="F125">
-        <v>150.15</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H125">
-        <v>136.27</v>
+        <v>105.3</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>426418112</v>
+        <v>428437042</v>
       </c>
       <c r="B126" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C126" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
@@ -4483,45 +4483,45 @@
         <v>11</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>7.15</v>
       </c>
       <c r="G126">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H126">
-        <v>102.02</v>
+        <v>6.49</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>426417966</v>
+        <v>428437005</v>
       </c>
       <c r="B127" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C127" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
       <c r="F127">
-        <v>10.45</v>
+        <v>150.15</v>
       </c>
       <c r="G127">
-        <v>0.91439</v>
+        <v>0.90756</v>
       </c>
       <c r="H127">
-        <v>9.56</v>
+        <v>136.27</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -4532,65 +4532,129 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>426416264</v>
+        <v>426418112</v>
       </c>
       <c r="B128" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C128" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
       <c r="F128">
-        <v>4.86</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>0.91458</v>
+        <v>102.02</v>
       </c>
       <c r="H128">
-        <v>4.44</v>
+        <v>102.02</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>426416183</v>
+        <v>426417966</v>
       </c>
       <c r="B129" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C129" s="2">
         <v>45518</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129">
+        <v>10.45</v>
+      </c>
+      <c r="G129">
+        <v>0.91439</v>
+      </c>
+      <c r="H129">
+        <v>9.56</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>426416264</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130">
+        <v>4.86</v>
+      </c>
+      <c r="G130">
+        <v>0.91458</v>
+      </c>
+      <c r="H130">
+        <v>4.44</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>426416183</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131">
         <v>102.05</v>
       </c>
-      <c r="G129">
+      <c r="G131">
         <v>0.91459</v>
       </c>
-      <c r="H129">
+      <c r="H131">
         <v>93.33</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J132"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>611014113</v>
+        <v>616396794</v>
       </c>
       <c r="B2" s="2">
-        <v>46042.40130787037</v>
+        <v>46056.480520833335</v>
       </c>
       <c r="C2" s="2">
-        <v>46043.95833333333</v>
+        <v>46056.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,33 +515,33 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>117.51</v>
       </c>
       <c r="G2">
-        <v>131.26</v>
+        <v>0.85099</v>
       </c>
       <c r="H2">
-        <v>131.26</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>610949467</v>
+        <v>611014113</v>
       </c>
       <c r="B3" s="2">
-        <v>46041.33980324074</v>
+        <v>46042.40130787037</v>
       </c>
       <c r="C3" s="2">
-        <v>46042.95833333333</v>
+        <v>46043.95833333333</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>132.2</v>
+        <v>131.26</v>
       </c>
       <c r="H3">
-        <v>132.2</v>
+        <v>131.26</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>608925629</v>
+        <v>610949467</v>
       </c>
       <c r="B4" s="2">
-        <v>46035.31548611111</v>
+        <v>46041.33980324074</v>
       </c>
       <c r="C4" s="2">
-        <v>46036.95833333333</v>
+        <v>46042.95833333333</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -579,30 +579,30 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>56.7</v>
+        <v>132.2</v>
       </c>
       <c r="H4">
-        <v>226.8</v>
+        <v>132.2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>608923859</v>
+        <v>608925629</v>
       </c>
       <c r="B5" s="2">
-        <v>46035.30521990741</v>
+        <v>46035.31548611111</v>
       </c>
       <c r="C5" s="2">
-        <v>46035.95833333333</v>
+        <v>46036.95833333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -611,30 +611,30 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>302.19</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0.86037</v>
+        <v>56.7</v>
       </c>
       <c r="H5">
-        <v>260</v>
+        <v>226.8</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>607897752</v>
+        <v>608923859</v>
       </c>
       <c r="B6" s="2">
-        <v>46031.419953703706</v>
+        <v>46035.30521990741</v>
       </c>
       <c r="C6" s="2">
-        <v>46034.95833333333</v>
+        <v>46035.95833333333</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -643,205 +643,205 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>302.19</v>
       </c>
       <c r="G6">
-        <v>133.16</v>
+        <v>0.86037</v>
       </c>
       <c r="H6">
-        <v>133.16</v>
+        <v>260</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>607448850</v>
+        <v>607897752</v>
       </c>
       <c r="B7" s="2">
-        <v>46030.52565972222</v>
+        <v>46031.419953703706</v>
       </c>
       <c r="C7" s="2">
-        <v>46030.95833333333</v>
+        <v>46034.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>174.44</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8599</v>
+        <v>133.16</v>
       </c>
       <c r="H7">
-        <v>150.01</v>
+        <v>133.16</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>604650426</v>
+        <v>607448850</v>
       </c>
       <c r="B8" s="2">
-        <v>46021.38538194445</v>
+        <v>46030.52565972222</v>
       </c>
       <c r="C8" s="2">
-        <v>46023.95833333333</v>
+        <v>46030.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>174.44</v>
       </c>
       <c r="G8">
-        <v>54.19</v>
+        <v>0.8599</v>
       </c>
       <c r="H8">
-        <v>108.38</v>
+        <v>150.01</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>598550485</v>
+        <v>604650426</v>
       </c>
       <c r="B9" s="2">
-        <v>46001.63391203704</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C9" s="2">
-        <v>46002.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>437.25</v>
+        <v>54.19</v>
       </c>
       <c r="H9">
-        <v>437.25</v>
+        <v>108.38</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.15</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>596219726</v>
+        <v>598550485</v>
       </c>
       <c r="B10" s="2">
-        <v>45994.43467592592</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C10" s="2">
-        <v>45995.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>53.57</v>
+        <v>437.25</v>
       </c>
       <c r="H10">
-        <v>107.14</v>
+        <v>437.25</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>595820593</v>
+        <v>596219726</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.61094907408</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C11" s="2">
-        <v>45993.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1.1572</v>
+        <v>53.57</v>
       </c>
       <c r="H11">
-        <v>347.16</v>
+        <v>107.14</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>592858794</v>
+        <v>595820593</v>
       </c>
       <c r="B12" s="2">
-        <v>45982.31758101852</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C12" s="2">
-        <v>45984.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>138.08</v>
+        <v>300</v>
       </c>
       <c r="G12">
-        <v>0.86907</v>
+        <v>1.1572</v>
       </c>
       <c r="H12">
-        <v>120</v>
+        <v>347.16</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,13 +852,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>592858764</v>
+        <v>592858794</v>
       </c>
       <c r="B13" s="2">
-        <v>45982.31736111111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C13" s="2">
-        <v>45985.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -867,30 +867,30 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G13">
-        <v>125.7</v>
+        <v>0.86907</v>
       </c>
       <c r="H13">
-        <v>125.7</v>
+        <v>120</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>591521660</v>
+        <v>592858764</v>
       </c>
       <c r="B14" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C14" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -902,30 +902,30 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="H14">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>591521571</v>
+        <v>591521660</v>
       </c>
       <c r="B15" s="2">
-        <v>45979.40299768519</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C15" s="2">
         <v>45980.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -934,30 +934,30 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="H15">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>589647638</v>
+        <v>591521571</v>
       </c>
       <c r="B16" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C16" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -966,94 +966,94 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="H16">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>589647623</v>
+        <v>589647638</v>
       </c>
       <c r="B17" s="2">
-        <v>45973.371666666666</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C17" s="2">
-        <v>45973.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.86743</v>
+        <v>131.88</v>
       </c>
       <c r="H17">
-        <v>120</v>
+        <v>131.88</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>589647528</v>
+        <v>589647623</v>
       </c>
       <c r="B18" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C18" s="2">
-        <v>45974.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G18">
-        <v>51.88</v>
+        <v>0.86743</v>
       </c>
       <c r="H18">
-        <v>51.88</v>
+        <v>120</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>587179374</v>
+        <v>589647528</v>
       </c>
       <c r="B19" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C19" s="2">
-        <v>45966.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1062,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="H19">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>586793234</v>
+        <v>587179374</v>
       </c>
       <c r="B20" s="2">
-        <v>45964.60378472222</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C20" s="2">
-        <v>45965.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1094,94 +1094,94 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="H20">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>586792895</v>
+        <v>586793234</v>
       </c>
       <c r="B21" s="2">
-        <v>45964.60346064815</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C21" s="2">
-        <v>45964.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.87185</v>
+        <v>130.9</v>
       </c>
       <c r="H21">
-        <v>249.99</v>
+        <v>130.9</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>585309488</v>
+        <v>586792895</v>
       </c>
       <c r="B22" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C22" s="2">
-        <v>45960.95833333333</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G22">
-        <v>51.01</v>
+        <v>0.87185</v>
       </c>
       <c r="H22">
-        <v>51.01</v>
+        <v>249.99</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>581709074</v>
+        <v>585309488</v>
       </c>
       <c r="B23" s="2">
-        <v>45947.35291666667</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C23" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1190,30 +1190,30 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="H23">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>581709060</v>
+        <v>581709074</v>
       </c>
       <c r="B24" s="2">
-        <v>45947.35277777778</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C24" s="2">
         <v>45951</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1222,27 +1222,27 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="H24">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>581269382</v>
+        <v>581709060</v>
       </c>
       <c r="B25" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C25" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1254,27 +1254,27 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="H25">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>580169893</v>
+        <v>581269382</v>
       </c>
       <c r="B26" s="2">
-        <v>45943.423321759255</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C26" s="2">
-        <v>45944</v>
+        <v>45950</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1283,65 +1283,65 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8656</v>
+        <v>50.94</v>
       </c>
       <c r="H26">
-        <v>70</v>
+        <v>50.94</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>580169868</v>
+        <v>580169893</v>
       </c>
       <c r="B27" s="2">
-        <v>45943.42288194444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C27" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G27">
-        <v>53.65</v>
+        <v>0.8656</v>
       </c>
       <c r="H27">
-        <v>53.65</v>
+        <v>70</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>580169327</v>
+        <v>580169868</v>
       </c>
       <c r="B28" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C28" s="2">
         <v>45945</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1350,30 +1350,30 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="H28">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>579211549</v>
+        <v>580169327</v>
       </c>
       <c r="B29" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C29" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1382,27 +1382,27 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="H29">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>577313732</v>
+        <v>579211549</v>
       </c>
       <c r="B30" s="2">
-        <v>45933.56972222222</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C30" s="2">
-        <v>45937</v>
+        <v>45943</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1411,62 +1411,62 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>52.65</v>
+        <v>129.08</v>
       </c>
       <c r="H30">
-        <v>105.3</v>
+        <v>129.08</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>576413456</v>
+        <v>577313732</v>
       </c>
       <c r="B31" s="2">
-        <v>45931.44907407407</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C31" s="2">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>51.62</v>
+        <v>52.65</v>
       </c>
       <c r="H31">
-        <v>51.62</v>
+        <v>105.3</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>576410571</v>
+        <v>576413456</v>
       </c>
       <c r="B32" s="2">
-        <v>45931.43001157408</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C32" s="2">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
@@ -1475,65 +1475,65 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.85583</v>
+        <v>51.62</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>51.62</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>575554915</v>
+        <v>576410571</v>
       </c>
       <c r="B33" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C33" s="2">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G33">
-        <v>51.47</v>
+        <v>0.85583</v>
       </c>
       <c r="H33">
-        <v>51.47</v>
+        <v>100</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>573400676</v>
+        <v>575554915</v>
       </c>
       <c r="B34" s="2">
-        <v>45922.33627314815</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C34" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -1542,24 +1542,24 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="H34">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>573399341</v>
+        <v>573400676</v>
       </c>
       <c r="B35" s="2">
-        <v>45922.324120370366</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C35" s="2">
         <v>45924</v>
@@ -1574,27 +1574,27 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="H35">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>568717926</v>
+        <v>573399341</v>
       </c>
       <c r="B36" s="2">
-        <v>45905.5246875</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C36" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1603,30 +1603,30 @@
         <v>11</v>
       </c>
       <c r="F36">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.85539</v>
+        <v>51</v>
       </c>
       <c r="H36">
-        <v>106.92</v>
+        <v>51</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>567931751</v>
+        <v>568717926</v>
       </c>
       <c r="B37" s="2">
-        <v>45903.333657407406</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C37" s="2">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1635,62 +1635,62 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G37">
-        <v>123.16</v>
+        <v>0.85539</v>
       </c>
       <c r="H37">
-        <v>123.16</v>
+        <v>106.92</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>566723916</v>
+        <v>567931751</v>
       </c>
       <c r="B38" s="2">
-        <v>45897.62657407408</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C38" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.86002</v>
+        <v>123.16</v>
       </c>
       <c r="H38">
-        <v>250</v>
+        <v>123.16</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>564426812</v>
+        <v>566723916</v>
       </c>
       <c r="B39" s="2">
-        <v>45889.61331018519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C39" s="2">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1699,77 +1699,77 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G39">
-        <v>121.62</v>
+        <v>0.86002</v>
       </c>
       <c r="H39">
-        <v>121.62</v>
+        <v>250</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>564420621</v>
+        <v>564426812</v>
       </c>
       <c r="B40" s="2">
-        <v>45889.60018518519</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C40" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.86135</v>
+        <v>121.62</v>
       </c>
       <c r="H40">
-        <v>110</v>
+        <v>121.62</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>555657178</v>
+        <v>564420621</v>
       </c>
       <c r="B41" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C41" s="2">
-        <v>45860</v>
+        <v>45890</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>127.71</v>
       </c>
       <c r="G41">
-        <v>0.85771</v>
+        <v>0.86135</v>
       </c>
       <c r="H41">
-        <v>85.77</v>
+        <v>110</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1780,48 +1780,48 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>555654532</v>
+        <v>555657178</v>
       </c>
       <c r="B42" s="2">
-        <v>45859.465474537035</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C42" s="2">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>395</v>
+        <v>0.85771</v>
       </c>
       <c r="H42">
-        <v>395</v>
+        <v>85.77</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>551218217</v>
+        <v>555654532</v>
       </c>
       <c r="B43" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C43" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -1830,74 +1830,74 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="H43">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>551216497</v>
+        <v>551218217</v>
       </c>
       <c r="B44" s="2">
-        <v>45841.35429398148</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C44" s="2">
         <v>45845</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.84741</v>
+        <v>119.16</v>
       </c>
       <c r="H44">
-        <v>169.48</v>
+        <v>119.16</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>549290062</v>
+        <v>551216497</v>
       </c>
       <c r="B45" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C45" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G45">
-        <v>0.85337</v>
+        <v>0.84741</v>
       </c>
       <c r="H45">
-        <v>99.84</v>
+        <v>169.48</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1908,13 +1908,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>546584060</v>
+        <v>549290062</v>
       </c>
       <c r="B46" s="2">
-        <v>45824.480104166665</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C46" s="2">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1923,77 +1923,77 @@
         <v>11</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G46">
-        <v>114.8</v>
+        <v>0.85337</v>
       </c>
       <c r="H46">
-        <v>114.8</v>
+        <v>99.84</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>546583898</v>
+        <v>546584060</v>
       </c>
       <c r="B47" s="2">
-        <v>45824.47923611111</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C47" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.86376</v>
+        <v>114.8</v>
       </c>
       <c r="H47">
-        <v>99.33</v>
+        <v>114.8</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>545459805</v>
+        <v>546583898</v>
       </c>
       <c r="B48" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C48" s="2">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G48">
-        <v>0.87444</v>
+        <v>0.86376</v>
       </c>
       <c r="H48">
-        <v>43.72</v>
+        <v>99.33</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2004,13 +2004,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>542145647</v>
+        <v>545459805</v>
       </c>
       <c r="B49" s="2">
-        <v>45807.5672337963</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C49" s="2">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -2019,62 +2019,62 @@
         <v>11</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G49">
-        <v>112.4</v>
+        <v>0.87444</v>
       </c>
       <c r="H49">
-        <v>112.4</v>
+        <v>43.72</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>541352365</v>
+        <v>542145647</v>
       </c>
       <c r="B50" s="2">
-        <v>45805.594560185185</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C50" s="2">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.88332</v>
+        <v>112.4</v>
       </c>
       <c r="H50">
-        <v>150.01</v>
+        <v>112.4</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>540397794</v>
+        <v>541352365</v>
       </c>
       <c r="B51" s="2">
-        <v>45800.4953125</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C51" s="2">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -2083,141 +2083,141 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G51">
-        <v>110.1385</v>
+        <v>0.88332</v>
       </c>
       <c r="H51">
-        <v>110.14</v>
+        <v>150.01</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>539546182</v>
+        <v>540397794</v>
       </c>
       <c r="B52" s="2">
-        <v>45798.38793981481</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C52" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0.88321</v>
+        <v>110.1385</v>
       </c>
       <c r="H52">
-        <v>88.32</v>
+        <v>110.14</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>530748416</v>
+        <v>539546182</v>
       </c>
       <c r="B53" s="2">
-        <v>45777.621458333335</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C53" s="2">
-        <v>45779</v>
+        <v>45799</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>327.9</v>
+        <v>0.88321</v>
       </c>
       <c r="H53">
-        <v>327.9</v>
+        <v>88.32</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>530748345</v>
+        <v>530748416</v>
       </c>
       <c r="B54" s="2">
-        <v>45777.62107638889</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C54" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.88043</v>
+        <v>327.9</v>
       </c>
       <c r="H54">
-        <v>26.41</v>
+        <v>327.9</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>530748166</v>
+        <v>530748345</v>
       </c>
       <c r="B55" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C55" s="2">
         <v>45778</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G55">
-        <v>0.8804</v>
+        <v>0.88043</v>
       </c>
       <c r="H55">
-        <v>264.12</v>
+        <v>26.41</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2228,28 +2228,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>528304116</v>
+        <v>530748166</v>
       </c>
       <c r="B56" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C56" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G56">
-        <v>0.87843</v>
+        <v>0.8804</v>
       </c>
       <c r="H56">
-        <v>74.67</v>
+        <v>264.12</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2260,13 +2260,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>525384379</v>
+        <v>528304116</v>
       </c>
       <c r="B57" s="2">
-        <v>45763.63711805556</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C57" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -2275,62 +2275,62 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G57">
-        <v>101.9</v>
+        <v>0.87843</v>
       </c>
       <c r="H57">
-        <v>101.9</v>
+        <v>74.67</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>525383965</v>
+        <v>525384379</v>
       </c>
       <c r="B58" s="2">
-        <v>45763.634826388894</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C58" s="2">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0.87888</v>
+        <v>101.9</v>
       </c>
       <c r="H58">
-        <v>65.92</v>
+        <v>101.9</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>521135744</v>
+        <v>525383965</v>
       </c>
       <c r="B59" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C59" s="2">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -2339,123 +2339,123 @@
         <v>11</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G59">
-        <v>95</v>
+        <v>0.87888</v>
       </c>
       <c r="H59">
-        <v>95</v>
+        <v>65.92</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>521115122</v>
+        <v>521135744</v>
       </c>
       <c r="B60" s="2">
-        <v>45754.593506944446</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C60" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.91206</v>
+        <v>95</v>
       </c>
       <c r="H60">
-        <v>100.02</v>
+        <v>95</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>519105737</v>
+        <v>521115122</v>
       </c>
       <c r="B61" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C61" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G61">
-        <v>330.5499</v>
+        <v>0.91206</v>
       </c>
       <c r="H61">
-        <v>330.55</v>
+        <v>100.02</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>519105619</v>
+        <v>519105737</v>
       </c>
       <c r="B62" s="2">
-        <v>45749.575115740736</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C62" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0.92423</v>
+        <v>330.5499</v>
       </c>
       <c r="H62">
-        <v>305</v>
+        <v>330.55</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>518501268</v>
+        <v>519105619</v>
       </c>
       <c r="B63" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C63" s="2">
         <v>45750</v>
@@ -2467,62 +2467,62 @@
         <v>11</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G63">
-        <v>106.7</v>
+        <v>0.92423</v>
       </c>
       <c r="H63">
-        <v>106.7</v>
+        <v>305</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>518501204</v>
+        <v>518501268</v>
       </c>
       <c r="B64" s="2">
-        <v>45748.342199074075</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C64" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.92553</v>
+        <v>106.7</v>
       </c>
       <c r="H64">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>510327986</v>
+        <v>518501204</v>
       </c>
       <c r="B65" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C65" s="2">
-        <v>45729.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -2531,141 +2531,141 @@
         <v>11</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G65">
-        <v>107</v>
+        <v>0.92553</v>
       </c>
       <c r="H65">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>510326670</v>
+        <v>510327986</v>
       </c>
       <c r="B66" s="2">
-        <v>45728.43972222222</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C66" s="2">
-        <v>45728.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.91668</v>
+        <v>107</v>
       </c>
       <c r="H66">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>506086900</v>
+        <v>510326670</v>
       </c>
       <c r="B67" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C67" s="2">
-        <v>45720.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>114.54</v>
       </c>
       <c r="G67">
-        <v>355.9998</v>
+        <v>0.91668</v>
       </c>
       <c r="H67">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>506086612</v>
+        <v>506086900</v>
       </c>
       <c r="B68" s="2">
-        <v>45719.31418981482</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C68" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>0.96213</v>
+        <v>355.9998</v>
       </c>
       <c r="H68">
-        <v>9.37</v>
+        <v>356</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>506084312</v>
+        <v>506086612</v>
       </c>
       <c r="B69" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C69" s="2">
         <v>45719.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>204.2</v>
+        <v>9.74</v>
       </c>
       <c r="G69">
-        <v>0.96116</v>
+        <v>0.96213</v>
       </c>
       <c r="H69">
-        <v>196.27</v>
+        <v>9.37</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2676,28 +2676,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>505408659</v>
+        <v>506084312</v>
       </c>
       <c r="B70" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C70" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>129.21</v>
+        <v>204.2</v>
       </c>
       <c r="G70">
-        <v>0.96171</v>
+        <v>0.96116</v>
       </c>
       <c r="H70">
-        <v>124.26</v>
+        <v>196.27</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>503618898</v>
+        <v>505408659</v>
       </c>
       <c r="B71" s="2">
-        <v>45713.606828703705</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C71" s="2">
-        <v>45714.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -2723,141 +2723,141 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G71">
-        <v>112.86</v>
+        <v>0.96171</v>
       </c>
       <c r="H71">
-        <v>112.86</v>
+        <v>124.26</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>503618686</v>
+        <v>503618898</v>
       </c>
       <c r="B72" s="2">
-        <v>45713.60653935185</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C72" s="2">
-        <v>45713.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.9511</v>
+        <v>112.86</v>
       </c>
       <c r="H72">
-        <v>114.13</v>
+        <v>112.86</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>499625741</v>
+        <v>503618686</v>
       </c>
       <c r="B73" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C73" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G73">
-        <v>375.25</v>
+        <v>0.9511</v>
       </c>
       <c r="H73">
-        <v>375.25</v>
+        <v>114.13</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>499590185</v>
+        <v>499625741</v>
       </c>
       <c r="B74" s="2">
-        <v>45702.36454861111</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C74" s="2">
         <v>45705.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.95429</v>
+        <v>375.25</v>
       </c>
       <c r="H74">
-        <v>20</v>
+        <v>375.25</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>498403616</v>
+        <v>499590185</v>
       </c>
       <c r="B75" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C75" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>103.4</v>
+        <v>20.96</v>
       </c>
       <c r="G75">
-        <v>0.96693</v>
+        <v>0.95429</v>
       </c>
       <c r="H75">
-        <v>99.98</v>
+        <v>20</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>494107867</v>
+        <v>498403616</v>
       </c>
       <c r="B76" s="2">
-        <v>45691.58335648148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C76" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -2883,62 +2883,62 @@
         <v>11</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G76">
-        <v>112.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H76">
-        <v>112.9</v>
+        <v>99.98</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>494049655</v>
+        <v>494107867</v>
       </c>
       <c r="B77" s="2">
-        <v>45691.31773148148</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C77" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.97578</v>
+        <v>112.9</v>
       </c>
       <c r="H77">
-        <v>300.01</v>
+        <v>112.9</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>494049572</v>
+        <v>494049655</v>
       </c>
       <c r="B78" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C78" s="2">
-        <v>45692.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -2947,94 +2947,94 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G78">
-        <v>113.34</v>
+        <v>0.97578</v>
       </c>
       <c r="H78">
-        <v>113.34</v>
+        <v>300.01</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>493368805</v>
+        <v>494049572</v>
       </c>
       <c r="B79" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C79" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>115.9</v>
+        <v>113.34</v>
       </c>
       <c r="H79">
-        <v>231.8</v>
+        <v>113.34</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>492836969</v>
+        <v>493368805</v>
       </c>
       <c r="B80" s="2">
-        <v>45687.621666666666</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C80" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>417.21</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>0.95874</v>
+        <v>115.9</v>
       </c>
       <c r="H80">
-        <v>400</v>
+        <v>231.8</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>491075870</v>
+        <v>492836969</v>
       </c>
       <c r="B81" s="2">
-        <v>45684.61530092593</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C81" s="2">
-        <v>45685.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -3043,126 +3043,126 @@
         <v>11</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G81">
-        <v>114.4</v>
+        <v>0.95874</v>
       </c>
       <c r="H81">
-        <v>114.4</v>
+        <v>400</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>491075618</v>
+        <v>491075870</v>
       </c>
       <c r="B82" s="2">
-        <v>45684.61476851851</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C82" s="2">
-        <v>45684.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0.95269</v>
+        <v>114.4</v>
       </c>
       <c r="H82">
-        <v>110</v>
+        <v>114.4</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>483911545</v>
+        <v>491075618</v>
       </c>
       <c r="B83" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C83" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>115.46</v>
       </c>
       <c r="G83">
-        <v>360.35</v>
+        <v>0.95269</v>
       </c>
       <c r="H83">
-        <v>360.35</v>
+        <v>110</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>483911481</v>
+        <v>483911545</v>
       </c>
       <c r="B84" s="2">
-        <v>45665.44840277778</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C84" s="2">
         <v>45666.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.97183</v>
+        <v>360.35</v>
       </c>
       <c r="H84">
-        <v>354.72</v>
+        <v>360.35</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>481235383</v>
+        <v>483911481</v>
       </c>
       <c r="B85" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C85" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -3171,141 +3171,141 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="G85">
-        <v>112</v>
+        <v>0.97183</v>
       </c>
       <c r="H85">
-        <v>224</v>
+        <v>354.72</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>481235152</v>
+        <v>481235383</v>
       </c>
       <c r="B86" s="2">
-        <v>45660.33241898148</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C86" s="2">
-        <v>45662.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>226.2</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>0.97259</v>
+        <v>112</v>
       </c>
       <c r="H86">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>476674643</v>
+        <v>481235152</v>
       </c>
       <c r="B87" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C87" s="2">
-        <v>45652.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>226.2</v>
       </c>
       <c r="G87">
-        <v>355.4</v>
+        <v>0.97259</v>
       </c>
       <c r="H87">
-        <v>355.4</v>
+        <v>220</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>476674604</v>
+        <v>476674643</v>
       </c>
       <c r="B88" s="2">
-        <v>45646.408437499995</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C88" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>0.96264</v>
+        <v>355.4</v>
       </c>
       <c r="H88">
-        <v>206.97</v>
+        <v>355.4</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>476670294</v>
+        <v>476674604</v>
       </c>
       <c r="B89" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C89" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>51.32</v>
+        <v>215</v>
       </c>
       <c r="G89">
-        <v>0.96299</v>
+        <v>0.96264</v>
       </c>
       <c r="H89">
-        <v>49.42</v>
+        <v>206.97</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3316,28 +3316,28 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>476669731</v>
+        <v>476670294</v>
       </c>
       <c r="B90" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C90" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>60</v>
+        <v>51.32</v>
       </c>
       <c r="G90">
-        <v>0.96251</v>
+        <v>0.96299</v>
       </c>
       <c r="H90">
-        <v>57.75</v>
+        <v>49.42</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>476123556</v>
+        <v>476669731</v>
       </c>
       <c r="B91" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C91" s="2">
         <v>45648.95833333333</v>
@@ -3363,158 +3363,158 @@
         <v>11</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G91">
-        <v>112.54</v>
+        <v>0.96251</v>
       </c>
       <c r="H91">
-        <v>112.54</v>
+        <v>57.75</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>476123515</v>
+        <v>476123556</v>
       </c>
       <c r="B92" s="2">
-        <v>45645.52649305556</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C92" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0.96108</v>
+        <v>112.54</v>
       </c>
       <c r="H92">
-        <v>96.11</v>
+        <v>112.54</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>471357479</v>
+        <v>476123515</v>
       </c>
       <c r="B93" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C93" s="2">
-        <v>45635.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G93">
-        <v>8.3412</v>
+        <v>0.96108</v>
       </c>
       <c r="H93">
-        <v>8.34</v>
+        <v>96.11</v>
       </c>
       <c r="I93">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>466623419</v>
+        <v>471357479</v>
       </c>
       <c r="B94" s="2">
-        <v>45622.31217592592</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C94" s="2">
-        <v>45624.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>354.5</v>
+        <v>8.3412</v>
       </c>
       <c r="H94">
-        <v>354.5</v>
+        <v>8.34</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J94">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>466623402</v>
+        <v>466623419</v>
       </c>
       <c r="B95" s="2">
-        <v>45622.31188657407</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C95" s="2">
-        <v>45622.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
       </c>
       <c r="F95">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0.95389</v>
+        <v>354.5</v>
       </c>
       <c r="H95">
-        <v>135.24</v>
+        <v>354.5</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>462598648</v>
+        <v>466623402</v>
       </c>
       <c r="B96" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C96" s="2">
-        <v>45614.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -3523,94 +3523,94 @@
         <v>11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G96">
-        <v>111.8099</v>
+        <v>0.95389</v>
       </c>
       <c r="H96">
-        <v>111.81</v>
+        <v>135.24</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>460084933</v>
+        <v>462598648</v>
       </c>
       <c r="B97" s="2">
-        <v>45604.62016203704</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C97" s="2">
-        <v>45607.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97">
-        <v>8.3836</v>
+        <v>111.8099</v>
       </c>
       <c r="H97">
-        <v>8.38</v>
+        <v>111.81</v>
       </c>
       <c r="I97">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>458847628</v>
+        <v>460084933</v>
       </c>
       <c r="B98" s="2">
-        <v>45602.26765046296</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C98" s="2">
-        <v>45602.95833333333</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F98">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0.93077</v>
+        <v>8.3836</v>
       </c>
       <c r="H98">
-        <v>318</v>
+        <v>8.38</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>449590057</v>
+        <v>458847628</v>
       </c>
       <c r="B99" s="2">
-        <v>45579.62847222222</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C99" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -3619,62 +3619,62 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G99">
-        <v>110.9161</v>
+        <v>0.93077</v>
       </c>
       <c r="H99">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>449589875</v>
+        <v>449590057</v>
       </c>
       <c r="B100" s="2">
-        <v>45579.628125</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C100" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0.91628</v>
+        <v>110.9161</v>
       </c>
       <c r="H100">
-        <v>32.07</v>
+        <v>110.92</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>449589083</v>
+        <v>449589875</v>
       </c>
       <c r="B101" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C101" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -3683,126 +3683,126 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G101">
-        <v>110.9196</v>
+        <v>0.91628</v>
       </c>
       <c r="H101">
-        <v>110.92</v>
+        <v>32.07</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>449588246</v>
+        <v>449589083</v>
       </c>
       <c r="B102" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C102" s="2">
         <v>45581</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>3.4715</v>
+        <v>110.9196</v>
       </c>
       <c r="H102">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I102">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>445429841</v>
+        <v>449588246</v>
       </c>
       <c r="B103" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C103" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G103">
-        <v>337.65</v>
+        <v>3.4715</v>
       </c>
       <c r="H103">
-        <v>337.65</v>
+        <v>149.27</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J103">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>445429174</v>
+        <v>445429841</v>
       </c>
       <c r="B104" s="2">
-        <v>45568.57231481481</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C104" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
       </c>
       <c r="F104">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0.90605</v>
+        <v>337.65</v>
       </c>
       <c r="H104">
-        <v>334.54</v>
+        <v>337.65</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>444353954</v>
+        <v>445429174</v>
       </c>
       <c r="B105" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C105" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -3811,173 +3811,173 @@
         <v>11</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G105">
-        <v>108.24</v>
+        <v>0.90605</v>
       </c>
       <c r="H105">
-        <v>108.24</v>
+        <v>334.54</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>444310921</v>
+        <v>444353954</v>
       </c>
       <c r="B106" s="2">
-        <v>45566.29953703703</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C106" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0.89984</v>
+        <v>108.24</v>
       </c>
       <c r="H106">
-        <v>54.49</v>
+        <v>108.24</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>439936166</v>
+        <v>444310921</v>
       </c>
       <c r="B107" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C107" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G107">
-        <v>62.0726</v>
+        <v>0.89984</v>
       </c>
       <c r="H107">
-        <v>62.07</v>
+        <v>54.49</v>
       </c>
       <c r="I107">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>435165980</v>
+        <v>439936166</v>
       </c>
       <c r="B108" s="2">
-        <v>45541.475370370375</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C108" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="G108">
-        <v>103.72</v>
+        <v>62.0726</v>
       </c>
       <c r="H108">
-        <v>103.72</v>
+        <v>62.07</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J108">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>435165968</v>
+        <v>435165980</v>
       </c>
       <c r="B109" s="2">
-        <v>45541.47508101852</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C109" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
       </c>
       <c r="F109">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>0.9011</v>
+        <v>103.72</v>
       </c>
       <c r="H109">
-        <v>0.19</v>
+        <v>103.72</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>435165951</v>
+        <v>435165968</v>
       </c>
       <c r="B110" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C110" s="2">
         <v>45544</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>4.42</v>
+        <v>0.21</v>
       </c>
       <c r="G110">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H110">
-        <v>3.98</v>
+        <v>0.19</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -3988,28 +3988,28 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>435165927</v>
+        <v>435165951</v>
       </c>
       <c r="B111" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C111" s="2">
         <v>45544</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>92.77</v>
+        <v>4.42</v>
       </c>
       <c r="G111">
         <v>0.90109</v>
       </c>
       <c r="H111">
-        <v>83.59</v>
+        <v>3.98</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4020,208 +4020,208 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>434675474</v>
+        <v>435165927</v>
       </c>
       <c r="B112" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C112" s="2">
         <v>45544</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>8</v>
+        <v>92.77</v>
       </c>
       <c r="G112">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H112">
-        <v>29.51</v>
+        <v>83.59</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>434162210</v>
+        <v>434675474</v>
       </c>
       <c r="B113" s="2">
-        <v>45539.43609953704</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C113" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G113">
-        <v>104.42</v>
+        <v>3.689</v>
       </c>
       <c r="H113">
-        <v>104.42</v>
+        <v>29.51</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>433696199</v>
+        <v>434162210</v>
       </c>
       <c r="B114" s="2">
-        <v>45538.68898148148</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C114" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>110.122</v>
+        <v>104.42</v>
       </c>
       <c r="H114">
-        <v>110.12</v>
+        <v>104.42</v>
       </c>
       <c r="I114">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>433626785</v>
+        <v>433696199</v>
       </c>
       <c r="B115" s="2">
-        <v>45538.39231481482</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C115" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115">
-        <v>106.54</v>
+        <v>110.122</v>
       </c>
       <c r="H115">
-        <v>106.54</v>
+        <v>110.12</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J115">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>433626678</v>
+        <v>433626785</v>
       </c>
       <c r="B116" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C116" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0.90603</v>
+        <v>106.54</v>
       </c>
       <c r="H116">
-        <v>66.96</v>
+        <v>106.54</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>432518350</v>
+        <v>433626678</v>
       </c>
       <c r="B117" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C117" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D117" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G117">
-        <v>120.88</v>
+        <v>0.90603</v>
       </c>
       <c r="H117">
-        <v>120.88</v>
+        <v>66.96</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>432515426</v>
+        <v>432518350</v>
       </c>
       <c r="B118" s="2">
-        <v>45533.54127314815</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C118" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -4230,222 +4230,222 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="H118">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>432005364</v>
+        <v>432515426</v>
       </c>
       <c r="B119" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C119" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>3.632</v>
+        <v>106.34</v>
       </c>
       <c r="H119">
-        <v>116.22</v>
+        <v>106.34</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>432003333</v>
+        <v>432005364</v>
       </c>
       <c r="B120" s="2">
-        <v>45532.363020833334</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C120" s="2">
         <v>45534</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G120">
-        <v>106.74</v>
+        <v>3.632</v>
       </c>
       <c r="H120">
-        <v>213.48</v>
+        <v>116.22</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>432003262</v>
+        <v>432003333</v>
       </c>
       <c r="B121" s="2">
-        <v>45532.361875</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C121" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>618.74</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>0.89741</v>
+        <v>106.74</v>
       </c>
       <c r="H121">
-        <v>555.26</v>
+        <v>213.48</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>430366906</v>
+        <v>432003262</v>
       </c>
       <c r="B122" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.361875</v>
       </c>
       <c r="C122" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>618.74</v>
       </c>
       <c r="G122">
-        <v>3.6305</v>
+        <v>0.89741</v>
       </c>
       <c r="H122">
-        <v>10.89</v>
+        <v>555.26</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>430365249</v>
+        <v>430366906</v>
       </c>
       <c r="B123" s="2">
-        <v>45527.27630787037</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C123" s="2">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123">
-        <v>4.63</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <v>0.8999</v>
+        <v>3.6305</v>
       </c>
       <c r="H123">
-        <v>4.17</v>
+        <v>10.89</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>428453232</v>
+        <v>430365249</v>
       </c>
       <c r="B124" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C124" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G124">
-        <v>60.046</v>
+        <v>0.8999</v>
       </c>
       <c r="H124">
-        <v>60.05</v>
+        <v>4.17</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>428444212</v>
+        <v>428453232</v>
       </c>
       <c r="B125" s="2">
-        <v>45523.47152777778</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C125" s="2">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -4454,74 +4454,74 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>105.3</v>
+        <v>60.046</v>
       </c>
       <c r="H125">
-        <v>105.3</v>
+        <v>60.05</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>428437042</v>
+        <v>428444212</v>
       </c>
       <c r="B126" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C126" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
       <c r="F126">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H126">
-        <v>6.49</v>
+        <v>105.3</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>428437005</v>
+        <v>428437042</v>
       </c>
       <c r="B127" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C127" s="2">
         <v>45524</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
       <c r="F127">
-        <v>150.15</v>
+        <v>7.15</v>
       </c>
       <c r="G127">
         <v>0.90756</v>
       </c>
       <c r="H127">
-        <v>136.27</v>
+        <v>6.49</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>426418112</v>
+        <v>428437005</v>
       </c>
       <c r="B128" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C128" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -4547,77 +4547,77 @@
         <v>11</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>150.15</v>
       </c>
       <c r="G128">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H128">
-        <v>102.02</v>
+        <v>136.27</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>426417966</v>
+        <v>426418112</v>
       </c>
       <c r="B129" s="2">
-        <v>45517.58042824074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C129" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0.91439</v>
+        <v>102.02</v>
       </c>
       <c r="H129">
-        <v>9.56</v>
+        <v>102.02</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>426416264</v>
+        <v>426417966</v>
       </c>
       <c r="B130" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C130" s="2">
         <v>45518</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130">
-        <v>4.86</v>
+        <v>10.45</v>
       </c>
       <c r="G130">
-        <v>0.91458</v>
+        <v>0.91439</v>
       </c>
       <c r="H130">
-        <v>4.44</v>
+        <v>9.56</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -4628,33 +4628,65 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>426416183</v>
+        <v>426416264</v>
       </c>
       <c r="B131" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.57699074074</v>
       </c>
       <c r="C131" s="2">
         <v>45518</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
+        <v>4.86</v>
+      </c>
+      <c r="G131">
+        <v>0.91458</v>
+      </c>
+      <c r="H131">
+        <v>4.44</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>426416183</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132">
         <v>102.05</v>
       </c>
-      <c r="G131">
+      <c r="G132">
         <v>0.91459</v>
       </c>
-      <c r="H131">
+      <c r="H132">
         <v>93.33</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J133"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>616396794</v>
+        <v>617433355</v>
       </c>
       <c r="B2" s="2">
-        <v>46056.480520833335</v>
+        <v>46058.33672453703</v>
       </c>
       <c r="C2" s="2">
-        <v>46056.95833333333</v>
+        <v>46061.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -515,30 +515,30 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>117.51</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.85099</v>
+        <v>61.44</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>61.44</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>611014113</v>
+        <v>616396794</v>
       </c>
       <c r="B3" s="2">
-        <v>46042.40130787037</v>
+        <v>46056.480520833335</v>
       </c>
       <c r="C3" s="2">
-        <v>46043.95833333333</v>
+        <v>46056.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,33 +547,33 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>117.51</v>
       </c>
       <c r="G3">
-        <v>131.26</v>
+        <v>0.85099</v>
       </c>
       <c r="H3">
-        <v>131.26</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>610949467</v>
+        <v>611014113</v>
       </c>
       <c r="B4" s="2">
-        <v>46041.33980324074</v>
+        <v>46042.40130787037</v>
       </c>
       <c r="C4" s="2">
-        <v>46042.95833333333</v>
+        <v>46043.95833333333</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -582,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>132.2</v>
+        <v>131.26</v>
       </c>
       <c r="H4">
-        <v>132.2</v>
+        <v>131.26</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>608925629</v>
+        <v>610949467</v>
       </c>
       <c r="B5" s="2">
-        <v>46035.31548611111</v>
+        <v>46041.33980324074</v>
       </c>
       <c r="C5" s="2">
-        <v>46036.95833333333</v>
+        <v>46042.95833333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -611,30 +611,30 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>56.7</v>
+        <v>132.2</v>
       </c>
       <c r="H5">
-        <v>226.8</v>
+        <v>132.2</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>608923859</v>
+        <v>608925629</v>
       </c>
       <c r="B6" s="2">
-        <v>46035.30521990741</v>
+        <v>46035.31548611111</v>
       </c>
       <c r="C6" s="2">
-        <v>46035.95833333333</v>
+        <v>46036.95833333333</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -643,30 +643,30 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>302.19</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0.86037</v>
+        <v>56.7</v>
       </c>
       <c r="H6">
-        <v>260</v>
+        <v>226.8</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>607897752</v>
+        <v>608923859</v>
       </c>
       <c r="B7" s="2">
-        <v>46031.419953703706</v>
+        <v>46035.30521990741</v>
       </c>
       <c r="C7" s="2">
-        <v>46034.95833333333</v>
+        <v>46035.95833333333</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -675,205 +675,205 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>302.19</v>
       </c>
       <c r="G7">
-        <v>133.16</v>
+        <v>0.86037</v>
       </c>
       <c r="H7">
-        <v>133.16</v>
+        <v>260</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>607448850</v>
+        <v>607897752</v>
       </c>
       <c r="B8" s="2">
-        <v>46030.52565972222</v>
+        <v>46031.419953703706</v>
       </c>
       <c r="C8" s="2">
-        <v>46030.95833333333</v>
+        <v>46034.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>174.44</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8599</v>
+        <v>133.16</v>
       </c>
       <c r="H8">
-        <v>150.01</v>
+        <v>133.16</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>604650426</v>
+        <v>607448850</v>
       </c>
       <c r="B9" s="2">
-        <v>46021.38538194445</v>
+        <v>46030.52565972222</v>
       </c>
       <c r="C9" s="2">
-        <v>46023.95833333333</v>
+        <v>46030.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>174.44</v>
       </c>
       <c r="G9">
-        <v>54.19</v>
+        <v>0.8599</v>
       </c>
       <c r="H9">
-        <v>108.38</v>
+        <v>150.01</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>598550485</v>
+        <v>604650426</v>
       </c>
       <c r="B10" s="2">
-        <v>46001.63391203704</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C10" s="2">
-        <v>46002.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>437.25</v>
+        <v>54.19</v>
       </c>
       <c r="H10">
-        <v>437.25</v>
+        <v>108.38</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.15</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>596219726</v>
+        <v>598550485</v>
       </c>
       <c r="B11" s="2">
-        <v>45994.43467592592</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C11" s="2">
-        <v>45995.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>53.57</v>
+        <v>437.25</v>
       </c>
       <c r="H11">
-        <v>107.14</v>
+        <v>437.25</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>595820593</v>
+        <v>596219726</v>
       </c>
       <c r="B12" s="2">
-        <v>45993.61094907408</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C12" s="2">
-        <v>45993.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1.1572</v>
+        <v>53.57</v>
       </c>
       <c r="H12">
-        <v>347.16</v>
+        <v>107.14</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>592858794</v>
+        <v>595820593</v>
       </c>
       <c r="B13" s="2">
-        <v>45982.31758101852</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C13" s="2">
-        <v>45984.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>138.08</v>
+        <v>300</v>
       </c>
       <c r="G13">
-        <v>0.86907</v>
+        <v>1.1572</v>
       </c>
       <c r="H13">
-        <v>120</v>
+        <v>347.16</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>592858764</v>
+        <v>592858794</v>
       </c>
       <c r="B14" s="2">
-        <v>45982.31736111111</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C14" s="2">
-        <v>45985.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -899,30 +899,30 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G14">
-        <v>125.7</v>
+        <v>0.86907</v>
       </c>
       <c r="H14">
-        <v>125.7</v>
+        <v>120</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>591521660</v>
+        <v>592858764</v>
       </c>
       <c r="B15" s="2">
-        <v>45979.40392361111</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C15" s="2">
-        <v>45980.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -934,30 +934,30 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="H15">
-        <v>51.58</v>
+        <v>125.7</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>591521571</v>
+        <v>591521660</v>
       </c>
       <c r="B16" s="2">
-        <v>45979.40299768519</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C16" s="2">
         <v>45980.95833333333</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -966,30 +966,30 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="H16">
-        <v>127.64</v>
+        <v>51.58</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>589647638</v>
+        <v>591521571</v>
       </c>
       <c r="B17" s="2">
-        <v>45973.3719212963</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C17" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -998,94 +998,94 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="H17">
-        <v>131.88</v>
+        <v>127.64</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>589647623</v>
+        <v>589647638</v>
       </c>
       <c r="B18" s="2">
-        <v>45973.371666666666</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C18" s="2">
-        <v>45973.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
       <c r="F18">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.86743</v>
+        <v>131.88</v>
       </c>
       <c r="H18">
-        <v>120</v>
+        <v>131.88</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>589647528</v>
+        <v>589647623</v>
       </c>
       <c r="B19" s="2">
-        <v>45973.37055555556</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C19" s="2">
-        <v>45974.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>138.34</v>
       </c>
       <c r="G19">
-        <v>51.88</v>
+        <v>0.86743</v>
       </c>
       <c r="H19">
-        <v>51.88</v>
+        <v>120</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>587179374</v>
+        <v>589647528</v>
       </c>
       <c r="B20" s="2">
-        <v>45965.315983796296</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C20" s="2">
-        <v>45966.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="H20">
-        <v>50.67</v>
+        <v>51.88</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>586793234</v>
+        <v>587179374</v>
       </c>
       <c r="B21" s="2">
-        <v>45964.60378472222</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C21" s="2">
-        <v>45965.95833333333</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1126,94 +1126,94 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="H21">
-        <v>130.9</v>
+        <v>50.67</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>586792895</v>
+        <v>586793234</v>
       </c>
       <c r="B22" s="2">
-        <v>45964.60346064815</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C22" s="2">
-        <v>45964.95833333333</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>286.74</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.87185</v>
+        <v>130.9</v>
       </c>
       <c r="H22">
-        <v>249.99</v>
+        <v>130.9</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>585309488</v>
+        <v>586792895</v>
       </c>
       <c r="B23" s="2">
-        <v>45959.31539351852</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C23" s="2">
-        <v>45960.95833333333</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G23">
-        <v>51.01</v>
+        <v>0.87185</v>
       </c>
       <c r="H23">
-        <v>51.01</v>
+        <v>249.99</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>581709074</v>
+        <v>585309488</v>
       </c>
       <c r="B24" s="2">
-        <v>45947.35291666667</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C24" s="2">
-        <v>45951</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1222,30 +1222,30 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="H24">
-        <v>49.61</v>
+        <v>51.01</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>581709060</v>
+        <v>581709074</v>
       </c>
       <c r="B25" s="2">
-        <v>45947.35277777778</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C25" s="2">
         <v>45951</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1254,27 +1254,27 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="H25">
-        <v>125.58</v>
+        <v>49.61</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>581269382</v>
+        <v>581709060</v>
       </c>
       <c r="B26" s="2">
-        <v>45946.41150462963</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C26" s="2">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
@@ -1286,27 +1286,27 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="H26">
-        <v>50.94</v>
+        <v>125.58</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>580169893</v>
+        <v>581269382</v>
       </c>
       <c r="B27" s="2">
-        <v>45943.423321759255</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C27" s="2">
-        <v>45944</v>
+        <v>45950</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -1315,65 +1315,65 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8656</v>
+        <v>50.94</v>
       </c>
       <c r="H27">
-        <v>70</v>
+        <v>50.94</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>580169868</v>
+        <v>580169893</v>
       </c>
       <c r="B28" s="2">
-        <v>45943.42288194444</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C28" s="2">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>80.87</v>
       </c>
       <c r="G28">
-        <v>53.65</v>
+        <v>0.8656</v>
       </c>
       <c r="H28">
-        <v>53.65</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>580169327</v>
+        <v>580169868</v>
       </c>
       <c r="B29" s="2">
-        <v>45943.41800925926</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C29" s="2">
         <v>45945</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1382,30 +1382,30 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="H29">
-        <v>127.32</v>
+        <v>53.65</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>579211549</v>
+        <v>580169327</v>
       </c>
       <c r="B30" s="2">
-        <v>45939.61756944444</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C30" s="2">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1414,27 +1414,27 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="H30">
-        <v>129.08</v>
+        <v>127.32</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>577313732</v>
+        <v>579211549</v>
       </c>
       <c r="B31" s="2">
-        <v>45933.56972222222</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C31" s="2">
-        <v>45937</v>
+        <v>45943</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1443,62 +1443,62 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>52.65</v>
+        <v>129.08</v>
       </c>
       <c r="H31">
-        <v>105.3</v>
+        <v>129.08</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>576413456</v>
+        <v>577313732</v>
       </c>
       <c r="B32" s="2">
-        <v>45931.44907407407</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C32" s="2">
-        <v>45933</v>
+        <v>45937</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>51.62</v>
+        <v>52.65</v>
       </c>
       <c r="H32">
-        <v>51.62</v>
+        <v>105.3</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>576410571</v>
+        <v>576413456</v>
       </c>
       <c r="B33" s="2">
-        <v>45931.43001157408</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C33" s="2">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1507,65 +1507,65 @@
         <v>11</v>
       </c>
       <c r="F33">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.85583</v>
+        <v>51.62</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>51.62</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>575554915</v>
+        <v>576410571</v>
       </c>
       <c r="B34" s="2">
-        <v>45929.452060185184</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C34" s="2">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>116.85</v>
       </c>
       <c r="G34">
-        <v>51.47</v>
+        <v>0.85583</v>
       </c>
       <c r="H34">
-        <v>51.47</v>
+        <v>100</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>573400676</v>
+        <v>575554915</v>
       </c>
       <c r="B35" s="2">
-        <v>45922.33627314815</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C35" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -1574,24 +1574,24 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="H35">
-        <v>127.36</v>
+        <v>51.47</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>573399341</v>
+        <v>573400676</v>
       </c>
       <c r="B36" s="2">
-        <v>45922.324120370366</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C36" s="2">
         <v>45924</v>
@@ -1606,27 +1606,27 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="H36">
-        <v>51</v>
+        <v>127.36</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>568717926</v>
+        <v>573399341</v>
       </c>
       <c r="B37" s="2">
-        <v>45905.5246875</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C37" s="2">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1635,30 +1635,30 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.85539</v>
+        <v>51</v>
       </c>
       <c r="H37">
-        <v>106.92</v>
+        <v>51</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>567931751</v>
+        <v>568717926</v>
       </c>
       <c r="B38" s="2">
-        <v>45903.333657407406</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C38" s="2">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -1667,62 +1667,62 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G38">
-        <v>123.16</v>
+        <v>0.85539</v>
       </c>
       <c r="H38">
-        <v>123.16</v>
+        <v>106.92</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>566723916</v>
+        <v>567931751</v>
       </c>
       <c r="B39" s="2">
-        <v>45897.62657407408</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C39" s="2">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.86002</v>
+        <v>123.16</v>
       </c>
       <c r="H39">
-        <v>250</v>
+        <v>123.16</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>564426812</v>
+        <v>566723916</v>
       </c>
       <c r="B40" s="2">
-        <v>45889.61331018519</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C40" s="2">
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1731,77 +1731,77 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G40">
-        <v>121.62</v>
+        <v>0.86002</v>
       </c>
       <c r="H40">
-        <v>121.62</v>
+        <v>250</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>564420621</v>
+        <v>564426812</v>
       </c>
       <c r="B41" s="2">
-        <v>45889.60018518519</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C41" s="2">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>127.71</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.86135</v>
+        <v>121.62</v>
       </c>
       <c r="H41">
-        <v>110</v>
+        <v>121.62</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>555657178</v>
+        <v>564420621</v>
       </c>
       <c r="B42" s="2">
-        <v>45859.48091435185</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C42" s="2">
-        <v>45860</v>
+        <v>45890</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>127.71</v>
       </c>
       <c r="G42">
-        <v>0.85771</v>
+        <v>0.86135</v>
       </c>
       <c r="H42">
-        <v>85.77</v>
+        <v>110</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1812,48 +1812,48 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>555654532</v>
+        <v>555657178</v>
       </c>
       <c r="B43" s="2">
-        <v>45859.465474537035</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C43" s="2">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <v>395</v>
+        <v>0.85771</v>
       </c>
       <c r="H43">
-        <v>395</v>
+        <v>85.77</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>551218217</v>
+        <v>555654532</v>
       </c>
       <c r="B44" s="2">
-        <v>45841.369837962964</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C44" s="2">
-        <v>45845</v>
+        <v>45861</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -1862,74 +1862,74 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="H44">
-        <v>119.16</v>
+        <v>395</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>551216497</v>
+        <v>551218217</v>
       </c>
       <c r="B45" s="2">
-        <v>45841.35429398148</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C45" s="2">
         <v>45845</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.84741</v>
+        <v>119.16</v>
       </c>
       <c r="H45">
-        <v>169.48</v>
+        <v>119.16</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>549290062</v>
+        <v>551216497</v>
       </c>
       <c r="B46" s="2">
-        <v>45834.39111111111</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C46" s="2">
-        <v>45835</v>
+        <v>45845</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G46">
-        <v>0.85337</v>
+        <v>0.84741</v>
       </c>
       <c r="H46">
-        <v>99.84</v>
+        <v>169.48</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1940,13 +1940,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>546584060</v>
+        <v>549290062</v>
       </c>
       <c r="B47" s="2">
-        <v>45824.480104166665</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C47" s="2">
-        <v>45826</v>
+        <v>45835</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -1955,77 +1955,77 @@
         <v>11</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G47">
-        <v>114.8</v>
+        <v>0.85337</v>
       </c>
       <c r="H47">
-        <v>114.8</v>
+        <v>99.84</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>546583898</v>
+        <v>546584060</v>
       </c>
       <c r="B48" s="2">
-        <v>45824.47923611111</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C48" s="2">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.86376</v>
+        <v>114.8</v>
       </c>
       <c r="H48">
-        <v>99.33</v>
+        <v>114.8</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>545459805</v>
+        <v>546583898</v>
       </c>
       <c r="B49" s="2">
-        <v>45819.41773148148</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C49" s="2">
-        <v>45820</v>
+        <v>45825</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G49">
-        <v>0.87444</v>
+        <v>0.86376</v>
       </c>
       <c r="H49">
-        <v>43.72</v>
+        <v>99.33</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>542145647</v>
+        <v>545459805</v>
       </c>
       <c r="B50" s="2">
-        <v>45807.5672337963</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C50" s="2">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -2051,62 +2051,62 @@
         <v>11</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G50">
-        <v>112.4</v>
+        <v>0.87444</v>
       </c>
       <c r="H50">
-        <v>112.4</v>
+        <v>43.72</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>541352365</v>
+        <v>542145647</v>
       </c>
       <c r="B51" s="2">
-        <v>45805.594560185185</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C51" s="2">
-        <v>45806</v>
+        <v>45811</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.88332</v>
+        <v>112.4</v>
       </c>
       <c r="H51">
-        <v>150.01</v>
+        <v>112.4</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>540397794</v>
+        <v>541352365</v>
       </c>
       <c r="B52" s="2">
-        <v>45800.4953125</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C52" s="2">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -2115,141 +2115,141 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>169.82</v>
       </c>
       <c r="G52">
-        <v>110.1385</v>
+        <v>0.88332</v>
       </c>
       <c r="H52">
-        <v>110.14</v>
+        <v>150.01</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>539546182</v>
+        <v>540397794</v>
       </c>
       <c r="B53" s="2">
-        <v>45798.38793981481</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C53" s="2">
-        <v>45799</v>
+        <v>45805</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.88321</v>
+        <v>110.1385</v>
       </c>
       <c r="H53">
-        <v>88.32</v>
+        <v>110.14</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>530748416</v>
+        <v>539546182</v>
       </c>
       <c r="B54" s="2">
-        <v>45777.621458333335</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C54" s="2">
-        <v>45779</v>
+        <v>45799</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G54">
-        <v>327.9</v>
+        <v>0.88321</v>
       </c>
       <c r="H54">
-        <v>327.9</v>
+        <v>88.32</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>530748345</v>
+        <v>530748416</v>
       </c>
       <c r="B55" s="2">
-        <v>45777.62107638889</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C55" s="2">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.88043</v>
+        <v>327.9</v>
       </c>
       <c r="H55">
-        <v>26.41</v>
+        <v>327.9</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>530748166</v>
+        <v>530748345</v>
       </c>
       <c r="B56" s="2">
-        <v>45777.62068287037</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C56" s="2">
         <v>45778</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G56">
-        <v>0.8804</v>
+        <v>0.88043</v>
       </c>
       <c r="H56">
-        <v>264.12</v>
+        <v>26.41</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2260,28 +2260,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>528304116</v>
+        <v>530748166</v>
       </c>
       <c r="B57" s="2">
-        <v>45771.59101851852</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C57" s="2">
-        <v>45772</v>
+        <v>45778</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="G57">
-        <v>0.87843</v>
+        <v>0.8804</v>
       </c>
       <c r="H57">
-        <v>74.67</v>
+        <v>264.12</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>525384379</v>
+        <v>528304116</v>
       </c>
       <c r="B58" s="2">
-        <v>45763.63711805556</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C58" s="2">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -2307,62 +2307,62 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="G58">
-        <v>101.9</v>
+        <v>0.87843</v>
       </c>
       <c r="H58">
-        <v>101.9</v>
+        <v>74.67</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>525383965</v>
+        <v>525384379</v>
       </c>
       <c r="B59" s="2">
-        <v>45763.634826388894</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C59" s="2">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.87888</v>
+        <v>101.9</v>
       </c>
       <c r="H59">
-        <v>65.92</v>
+        <v>101.9</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>521135744</v>
+        <v>525383965</v>
       </c>
       <c r="B60" s="2">
-        <v>45754.608506944445</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C60" s="2">
-        <v>45756</v>
+        <v>45764</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -2371,123 +2371,123 @@
         <v>11</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G60">
-        <v>95</v>
+        <v>0.87888</v>
       </c>
       <c r="H60">
-        <v>95</v>
+        <v>65.92</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>521115122</v>
+        <v>521135744</v>
       </c>
       <c r="B61" s="2">
-        <v>45754.593506944446</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C61" s="2">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>109.66</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.91206</v>
+        <v>95</v>
       </c>
       <c r="H61">
-        <v>100.02</v>
+        <v>95</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>519105737</v>
+        <v>521115122</v>
       </c>
       <c r="B62" s="2">
-        <v>45749.575324074074</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C62" s="2">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>109.66</v>
       </c>
       <c r="G62">
-        <v>330.5499</v>
+        <v>0.91206</v>
       </c>
       <c r="H62">
-        <v>330.55</v>
+        <v>100.02</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>519105619</v>
+        <v>519105737</v>
       </c>
       <c r="B63" s="2">
-        <v>45749.575115740736</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C63" s="2">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.92423</v>
+        <v>330.5499</v>
       </c>
       <c r="H63">
-        <v>305</v>
+        <v>330.55</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>518501268</v>
+        <v>519105619</v>
       </c>
       <c r="B64" s="2">
-        <v>45748.342511574076</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C64" s="2">
         <v>45750</v>
@@ -2499,62 +2499,62 @@
         <v>11</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="G64">
-        <v>106.7</v>
+        <v>0.92423</v>
       </c>
       <c r="H64">
-        <v>106.7</v>
+        <v>305</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>518501204</v>
+        <v>518501268</v>
       </c>
       <c r="B65" s="2">
-        <v>45748.342199074075</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C65" s="2">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65">
-        <v>118.85</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.92553</v>
+        <v>106.7</v>
       </c>
       <c r="H65">
-        <v>110</v>
+        <v>106.7</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>510327986</v>
+        <v>518501204</v>
       </c>
       <c r="B66" s="2">
-        <v>45728.454201388886</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C66" s="2">
-        <v>45729.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -2563,141 +2563,141 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>118.85</v>
       </c>
       <c r="G66">
-        <v>107</v>
+        <v>0.92553</v>
       </c>
       <c r="H66">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>510326670</v>
+        <v>510327986</v>
       </c>
       <c r="B67" s="2">
-        <v>45728.43972222222</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C67" s="2">
-        <v>45728.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67">
-        <v>114.54</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.91668</v>
+        <v>107</v>
       </c>
       <c r="H67">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>506086900</v>
+        <v>510326670</v>
       </c>
       <c r="B68" s="2">
-        <v>45719.31646990741</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C68" s="2">
-        <v>45720.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>114.54</v>
       </c>
       <c r="G68">
-        <v>355.9998</v>
+        <v>0.91668</v>
       </c>
       <c r="H68">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>506086612</v>
+        <v>506086900</v>
       </c>
       <c r="B69" s="2">
-        <v>45719.31418981482</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C69" s="2">
-        <v>45719.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>9.74</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.96213</v>
+        <v>355.9998</v>
       </c>
       <c r="H69">
-        <v>9.37</v>
+        <v>356</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>506084312</v>
+        <v>506086612</v>
       </c>
       <c r="B70" s="2">
-        <v>45719.29939814815</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C70" s="2">
         <v>45719.95833333333</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>204.2</v>
+        <v>9.74</v>
       </c>
       <c r="G70">
-        <v>0.96116</v>
+        <v>0.96213</v>
       </c>
       <c r="H70">
-        <v>196.27</v>
+        <v>9.37</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2708,28 +2708,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>505408659</v>
+        <v>506084312</v>
       </c>
       <c r="B71" s="2">
-        <v>45716.45657407407</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C71" s="2">
-        <v>45718.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>129.21</v>
+        <v>204.2</v>
       </c>
       <c r="G71">
-        <v>0.96171</v>
+        <v>0.96116</v>
       </c>
       <c r="H71">
-        <v>124.26</v>
+        <v>196.27</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>503618898</v>
+        <v>505408659</v>
       </c>
       <c r="B72" s="2">
-        <v>45713.606828703705</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C72" s="2">
-        <v>45714.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -2755,141 +2755,141 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>129.21</v>
       </c>
       <c r="G72">
-        <v>112.86</v>
+        <v>0.96171</v>
       </c>
       <c r="H72">
-        <v>112.86</v>
+        <v>124.26</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>503618686</v>
+        <v>503618898</v>
       </c>
       <c r="B73" s="2">
-        <v>45713.60653935185</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C73" s="2">
-        <v>45713.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.9511</v>
+        <v>112.86</v>
       </c>
       <c r="H73">
-        <v>114.13</v>
+        <v>112.86</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>499625741</v>
+        <v>503618686</v>
       </c>
       <c r="B74" s="2">
-        <v>45702.56398148148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C74" s="2">
-        <v>45705.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G74">
-        <v>375.25</v>
+        <v>0.9511</v>
       </c>
       <c r="H74">
-        <v>375.25</v>
+        <v>114.13</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>499590185</v>
+        <v>499625741</v>
       </c>
       <c r="B75" s="2">
-        <v>45702.36454861111</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C75" s="2">
         <v>45705.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>20.96</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0.95429</v>
+        <v>375.25</v>
       </c>
       <c r="H75">
-        <v>20</v>
+        <v>375.25</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>498403616</v>
+        <v>499590185</v>
       </c>
       <c r="B76" s="2">
-        <v>45700.59783564815</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C76" s="2">
-        <v>45700.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>103.4</v>
+        <v>20.96</v>
       </c>
       <c r="G76">
-        <v>0.96693</v>
+        <v>0.95429</v>
       </c>
       <c r="H76">
-        <v>99.98</v>
+        <v>20</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2900,13 +2900,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>494107867</v>
+        <v>498403616</v>
       </c>
       <c r="B77" s="2">
-        <v>45691.58335648148</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C77" s="2">
-        <v>45692.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -2915,62 +2915,62 @@
         <v>11</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>103.4</v>
       </c>
       <c r="G77">
-        <v>112.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H77">
-        <v>112.9</v>
+        <v>99.98</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>494049655</v>
+        <v>494107867</v>
       </c>
       <c r="B78" s="2">
-        <v>45691.31773148148</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C78" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.97578</v>
+        <v>112.9</v>
       </c>
       <c r="H78">
-        <v>300.01</v>
+        <v>112.9</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>494049572</v>
+        <v>494049655</v>
       </c>
       <c r="B79" s="2">
-        <v>45691.31670138889</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C79" s="2">
-        <v>45692.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -2979,94 +2979,94 @@
         <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G79">
-        <v>113.34</v>
+        <v>0.97578</v>
       </c>
       <c r="H79">
-        <v>113.34</v>
+        <v>300.01</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>493368805</v>
+        <v>494049572</v>
       </c>
       <c r="B80" s="2">
-        <v>45688.32907407408</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C80" s="2">
-        <v>45691.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>115.9</v>
+        <v>113.34</v>
       </c>
       <c r="H80">
-        <v>231.8</v>
+        <v>113.34</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1.77</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>492836969</v>
+        <v>493368805</v>
       </c>
       <c r="B81" s="2">
-        <v>45687.621666666666</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C81" s="2">
-        <v>45687.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81">
-        <v>417.21</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>0.95874</v>
+        <v>115.9</v>
       </c>
       <c r="H81">
-        <v>400</v>
+        <v>231.8</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>491075870</v>
+        <v>492836969</v>
       </c>
       <c r="B82" s="2">
-        <v>45684.61530092593</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C82" s="2">
-        <v>45685.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3075,126 +3075,126 @@
         <v>11</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>417.21</v>
       </c>
       <c r="G82">
-        <v>114.4</v>
+        <v>0.95874</v>
       </c>
       <c r="H82">
-        <v>114.4</v>
+        <v>400</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>491075618</v>
+        <v>491075870</v>
       </c>
       <c r="B83" s="2">
-        <v>45684.61476851851</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C83" s="2">
-        <v>45684.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G83">
-        <v>0.95269</v>
+        <v>114.4</v>
       </c>
       <c r="H83">
-        <v>110</v>
+        <v>114.4</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>483911545</v>
+        <v>491075618</v>
       </c>
       <c r="B84" s="2">
-        <v>45665.44930555555</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C84" s="2">
-        <v>45666.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>115.46</v>
       </c>
       <c r="G84">
-        <v>360.35</v>
+        <v>0.95269</v>
       </c>
       <c r="H84">
-        <v>360.35</v>
+        <v>110</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>483911481</v>
+        <v>483911545</v>
       </c>
       <c r="B85" s="2">
-        <v>45665.44840277778</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C85" s="2">
         <v>45666.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>0.97183</v>
+        <v>360.35</v>
       </c>
       <c r="H85">
-        <v>354.72</v>
+        <v>360.35</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>481235383</v>
+        <v>483911481</v>
       </c>
       <c r="B86" s="2">
-        <v>45660.337430555555</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C86" s="2">
-        <v>45663.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -3203,141 +3203,141 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="G86">
-        <v>112</v>
+        <v>0.97183</v>
       </c>
       <c r="H86">
-        <v>224</v>
+        <v>354.72</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>481235152</v>
+        <v>481235383</v>
       </c>
       <c r="B87" s="2">
-        <v>45660.33241898148</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C87" s="2">
-        <v>45662.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>226.2</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>0.97259</v>
+        <v>112</v>
       </c>
       <c r="H87">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>476674643</v>
+        <v>481235152</v>
       </c>
       <c r="B88" s="2">
-        <v>45646.40855324074</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C88" s="2">
-        <v>45652.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>226.2</v>
       </c>
       <c r="G88">
-        <v>355.4</v>
+        <v>0.97259</v>
       </c>
       <c r="H88">
-        <v>355.4</v>
+        <v>220</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>476674604</v>
+        <v>476674643</v>
       </c>
       <c r="B89" s="2">
-        <v>45646.408437499995</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C89" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0.96264</v>
+        <v>355.4</v>
       </c>
       <c r="H89">
-        <v>206.97</v>
+        <v>355.4</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>476670294</v>
+        <v>476674604</v>
       </c>
       <c r="B90" s="2">
-        <v>45646.38765046296</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C90" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>51.32</v>
+        <v>215</v>
       </c>
       <c r="G90">
-        <v>0.96299</v>
+        <v>0.96264</v>
       </c>
       <c r="H90">
-        <v>49.42</v>
+        <v>206.97</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3348,28 +3348,28 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>476669731</v>
+        <v>476670294</v>
       </c>
       <c r="B91" s="2">
-        <v>45646.38260416666</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C91" s="2">
         <v>45648.95833333333</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>60</v>
+        <v>51.32</v>
       </c>
       <c r="G91">
-        <v>0.96251</v>
+        <v>0.96299</v>
       </c>
       <c r="H91">
-        <v>57.75</v>
+        <v>49.42</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>476123556</v>
+        <v>476669731</v>
       </c>
       <c r="B92" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C92" s="2">
         <v>45648.95833333333</v>
@@ -3395,158 +3395,158 @@
         <v>11</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G92">
-        <v>112.54</v>
+        <v>0.96251</v>
       </c>
       <c r="H92">
-        <v>112.54</v>
+        <v>57.75</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>476123515</v>
+        <v>476123556</v>
       </c>
       <c r="B93" s="2">
-        <v>45645.52649305556</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C93" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0.96108</v>
+        <v>112.54</v>
       </c>
       <c r="H93">
-        <v>96.11</v>
+        <v>112.54</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>471357479</v>
+        <v>476123515</v>
       </c>
       <c r="B94" s="2">
-        <v>45635.56259259259</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C94" s="2">
-        <v>45635.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G94">
-        <v>8.3412</v>
+        <v>0.96108</v>
       </c>
       <c r="H94">
-        <v>8.34</v>
+        <v>96.11</v>
       </c>
       <c r="I94">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>466623419</v>
+        <v>471357479</v>
       </c>
       <c r="B95" s="2">
-        <v>45622.31217592592</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C95" s="2">
-        <v>45624.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>354.5</v>
+        <v>8.3412</v>
       </c>
       <c r="H95">
-        <v>354.5</v>
+        <v>8.34</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>8.34</v>
       </c>
       <c r="J95">
-        <v>2.05</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>466623402</v>
+        <v>466623419</v>
       </c>
       <c r="B96" s="2">
-        <v>45622.31188657407</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C96" s="2">
-        <v>45622.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0.95389</v>
+        <v>354.5</v>
       </c>
       <c r="H96">
-        <v>135.24</v>
+        <v>354.5</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>462598648</v>
+        <v>466623402</v>
       </c>
       <c r="B97" s="2">
-        <v>45611.592997685184</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C97" s="2">
-        <v>45614.95833333333</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
@@ -3555,94 +3555,94 @@
         <v>11</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G97">
-        <v>111.8099</v>
+        <v>0.95389</v>
       </c>
       <c r="H97">
-        <v>111.81</v>
+        <v>135.24</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>460084933</v>
+        <v>462598648</v>
       </c>
       <c r="B98" s="2">
-        <v>45604.62016203704</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C98" s="2">
-        <v>45607.95833333333</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>8.3836</v>
+        <v>111.8099</v>
       </c>
       <c r="H98">
-        <v>8.38</v>
+        <v>111.81</v>
       </c>
       <c r="I98">
-        <v>8.38</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>458847628</v>
+        <v>460084933</v>
       </c>
       <c r="B99" s="2">
-        <v>45602.26765046296</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C99" s="2">
-        <v>45602.95833333333</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F99">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0.93077</v>
+        <v>8.3836</v>
       </c>
       <c r="H99">
-        <v>318</v>
+        <v>8.38</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>449590057</v>
+        <v>458847628</v>
       </c>
       <c r="B100" s="2">
-        <v>45579.62847222222</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C100" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -3651,62 +3651,62 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>341.65</v>
       </c>
       <c r="G100">
-        <v>110.9161</v>
+        <v>0.93077</v>
       </c>
       <c r="H100">
-        <v>110.92</v>
+        <v>318</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>449589875</v>
+        <v>449590057</v>
       </c>
       <c r="B101" s="2">
-        <v>45579.628125</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C101" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0.91628</v>
+        <v>110.9161</v>
       </c>
       <c r="H101">
-        <v>32.07</v>
+        <v>110.92</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>449589083</v>
+        <v>449589875</v>
       </c>
       <c r="B102" s="2">
-        <v>45579.62637731481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C102" s="2">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -3715,126 +3715,126 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G102">
-        <v>110.9196</v>
+        <v>0.91628</v>
       </c>
       <c r="H102">
-        <v>110.92</v>
+        <v>32.07</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>449588246</v>
+        <v>449589083</v>
       </c>
       <c r="B103" s="2">
-        <v>45579.62483796296</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C103" s="2">
         <v>45581</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F103">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>3.4715</v>
+        <v>110.9196</v>
       </c>
       <c r="H103">
-        <v>149.27</v>
+        <v>110.92</v>
       </c>
       <c r="I103">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>445429841</v>
+        <v>449588246</v>
       </c>
       <c r="B104" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C104" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G104">
-        <v>337.65</v>
+        <v>3.4715</v>
       </c>
       <c r="H104">
-        <v>337.65</v>
+        <v>149.27</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J104">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>445429174</v>
+        <v>445429841</v>
       </c>
       <c r="B105" s="2">
-        <v>45568.57231481481</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C105" s="2">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
       <c r="F105">
-        <v>369.23</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0.90605</v>
+        <v>337.65</v>
       </c>
       <c r="H105">
-        <v>334.54</v>
+        <v>337.65</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>444353954</v>
+        <v>445429174</v>
       </c>
       <c r="B106" s="2">
-        <v>45566.58853009259</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C106" s="2">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -3843,173 +3843,173 @@
         <v>11</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G106">
-        <v>108.24</v>
+        <v>0.90605</v>
       </c>
       <c r="H106">
-        <v>108.24</v>
+        <v>334.54</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>444310921</v>
+        <v>444353954</v>
       </c>
       <c r="B107" s="2">
-        <v>45566.29953703703</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C107" s="2">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
       <c r="F107">
-        <v>60.56</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0.89984</v>
+        <v>108.24</v>
       </c>
       <c r="H107">
-        <v>54.49</v>
+        <v>108.24</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>439936166</v>
+        <v>444310921</v>
       </c>
       <c r="B108" s="2">
-        <v>45554.56259259259</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C108" s="2">
-        <v>45555</v>
+        <v>45567</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>60.56</v>
       </c>
       <c r="G108">
-        <v>62.0726</v>
+        <v>0.89984</v>
       </c>
       <c r="H108">
-        <v>62.07</v>
+        <v>54.49</v>
       </c>
       <c r="I108">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>435165980</v>
+        <v>439936166</v>
       </c>
       <c r="B109" s="2">
-        <v>45541.475370370375</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C109" s="2">
-        <v>45545</v>
+        <v>45555</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109">
-        <v>103.72</v>
+        <v>62.0726</v>
       </c>
       <c r="H109">
-        <v>103.72</v>
+        <v>62.07</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J109">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>435165968</v>
+        <v>435165980</v>
       </c>
       <c r="B110" s="2">
-        <v>45541.47508101852</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C110" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
       </c>
       <c r="F110">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0.9011</v>
+        <v>103.72</v>
       </c>
       <c r="H110">
-        <v>0.19</v>
+        <v>103.72</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>435165951</v>
+        <v>435165968</v>
       </c>
       <c r="B111" s="2">
-        <v>45541.47487268518</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C111" s="2">
         <v>45544</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>4.42</v>
+        <v>0.21</v>
       </c>
       <c r="G111">
-        <v>0.90109</v>
+        <v>0.9011</v>
       </c>
       <c r="H111">
-        <v>3.98</v>
+        <v>0.19</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -4020,28 +4020,28 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>435165927</v>
+        <v>435165951</v>
       </c>
       <c r="B112" s="2">
-        <v>45541.474652777775</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C112" s="2">
         <v>45544</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>92.77</v>
+        <v>4.42</v>
       </c>
       <c r="G112">
         <v>0.90109</v>
       </c>
       <c r="H112">
-        <v>83.59</v>
+        <v>3.98</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4052,208 +4052,208 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>434675474</v>
+        <v>435165927</v>
       </c>
       <c r="B113" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C113" s="2">
         <v>45544</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
       <c r="F113">
-        <v>8</v>
+        <v>92.77</v>
       </c>
       <c r="G113">
-        <v>3.689</v>
+        <v>0.90109</v>
       </c>
       <c r="H113">
-        <v>29.51</v>
+        <v>83.59</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>434162210</v>
+        <v>434675474</v>
       </c>
       <c r="B114" s="2">
-        <v>45539.43609953704</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C114" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>104.42</v>
+        <v>3.689</v>
       </c>
       <c r="H114">
-        <v>104.42</v>
+        <v>29.51</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>433696199</v>
+        <v>434162210</v>
       </c>
       <c r="B115" s="2">
-        <v>45538.68898148148</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C115" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115">
-        <v>110.122</v>
+        <v>104.42</v>
       </c>
       <c r="H115">
-        <v>110.12</v>
+        <v>104.42</v>
       </c>
       <c r="I115">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>433626785</v>
+        <v>433696199</v>
       </c>
       <c r="B116" s="2">
-        <v>45538.39231481482</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C116" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
       <c r="G116">
-        <v>106.54</v>
+        <v>110.122</v>
       </c>
       <c r="H116">
-        <v>106.54</v>
+        <v>110.12</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J116">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>433626678</v>
+        <v>433626785</v>
       </c>
       <c r="B117" s="2">
-        <v>45538.391076388885</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C117" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>73.9</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0.90603</v>
+        <v>106.54</v>
       </c>
       <c r="H117">
-        <v>66.96</v>
+        <v>106.54</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>432518350</v>
+        <v>433626678</v>
       </c>
       <c r="B118" s="2">
-        <v>45533.56263888889</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C118" s="2">
-        <v>45533</v>
+        <v>45539</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>73.9</v>
       </c>
       <c r="G118">
-        <v>120.88</v>
+        <v>0.90603</v>
       </c>
       <c r="H118">
-        <v>120.88</v>
+        <v>66.96</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>432515426</v>
+        <v>432518350</v>
       </c>
       <c r="B119" s="2">
-        <v>45533.54127314815</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C119" s="2">
-        <v>45537</v>
+        <v>45533</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -4262,222 +4262,222 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="H119">
-        <v>106.34</v>
+        <v>120.88</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>432005364</v>
+        <v>432515426</v>
       </c>
       <c r="B120" s="2">
-        <v>45532.39208333333</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C120" s="2">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>3.632</v>
+        <v>106.34</v>
       </c>
       <c r="H120">
-        <v>116.22</v>
+        <v>106.34</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>432003333</v>
+        <v>432005364</v>
       </c>
       <c r="B121" s="2">
-        <v>45532.363020833334</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C121" s="2">
         <v>45534</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G121">
-        <v>106.74</v>
+        <v>3.632</v>
       </c>
       <c r="H121">
-        <v>213.48</v>
+        <v>116.22</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>432003262</v>
+        <v>432003333</v>
       </c>
       <c r="B122" s="2">
-        <v>45532.361875</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C122" s="2">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
       </c>
       <c r="F122">
-        <v>618.74</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>0.89741</v>
+        <v>106.74</v>
       </c>
       <c r="H122">
-        <v>555.26</v>
+        <v>213.48</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>430366906</v>
+        <v>432003262</v>
       </c>
       <c r="B123" s="2">
-        <v>45527.29204861111</v>
+        <v>45532.361875</v>
       </c>
       <c r="C123" s="2">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>618.74</v>
       </c>
       <c r="G123">
-        <v>3.6305</v>
+        <v>0.89741</v>
       </c>
       <c r="H123">
-        <v>10.89</v>
+        <v>555.26</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>430365249</v>
+        <v>430366906</v>
       </c>
       <c r="B124" s="2">
-        <v>45527.27630787037</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C124" s="2">
-        <v>45530</v>
+        <v>45532</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124">
-        <v>4.63</v>
+        <v>3</v>
       </c>
       <c r="G124">
-        <v>0.8999</v>
+        <v>3.6305</v>
       </c>
       <c r="H124">
-        <v>4.17</v>
+        <v>10.89</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>428453232</v>
+        <v>430365249</v>
       </c>
       <c r="B125" s="2">
-        <v>45523.56253472222</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C125" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>4.63</v>
       </c>
       <c r="G125">
-        <v>60.046</v>
+        <v>0.8999</v>
       </c>
       <c r="H125">
-        <v>60.05</v>
+        <v>4.17</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>428444212</v>
+        <v>428453232</v>
       </c>
       <c r="B126" s="2">
-        <v>45523.47152777778</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C126" s="2">
-        <v>45525</v>
+        <v>45524</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -4486,74 +4486,74 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <v>105.3</v>
+        <v>60.046</v>
       </c>
       <c r="H126">
-        <v>105.3</v>
+        <v>60.05</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>428437042</v>
+        <v>428444212</v>
       </c>
       <c r="B127" s="2">
-        <v>45523.37878472223</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C127" s="2">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
       </c>
       <c r="F127">
-        <v>7.15</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0.90756</v>
+        <v>105.3</v>
       </c>
       <c r="H127">
-        <v>6.49</v>
+        <v>105.3</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>428437005</v>
+        <v>428437042</v>
       </c>
       <c r="B128" s="2">
-        <v>45523.37849537037</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C128" s="2">
         <v>45524</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
       <c r="F128">
-        <v>150.15</v>
+        <v>7.15</v>
       </c>
       <c r="G128">
         <v>0.90756</v>
       </c>
       <c r="H128">
-        <v>136.27</v>
+        <v>6.49</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -4564,13 +4564,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>426418112</v>
+        <v>428437005</v>
       </c>
       <c r="B129" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.37849537037</v>
       </c>
       <c r="C129" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -4579,77 +4579,77 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>150.15</v>
       </c>
       <c r="G129">
-        <v>102.02</v>
+        <v>0.90756</v>
       </c>
       <c r="H129">
-        <v>102.02</v>
+        <v>136.27</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>426417966</v>
+        <v>426418112</v>
       </c>
       <c r="B130" s="2">
-        <v>45517.58042824074</v>
+        <v>45517.58078703703</v>
       </c>
       <c r="C130" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0.91439</v>
+        <v>102.02</v>
       </c>
       <c r="H130">
-        <v>9.56</v>
+        <v>102.02</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>426416264</v>
+        <v>426417966</v>
       </c>
       <c r="B131" s="2">
-        <v>45517.57699074074</v>
+        <v>45517.58042824074</v>
       </c>
       <c r="C131" s="2">
         <v>45518</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>4.86</v>
+        <v>10.45</v>
       </c>
       <c r="G131">
-        <v>0.91458</v>
+        <v>0.91439</v>
       </c>
       <c r="H131">
-        <v>4.44</v>
+        <v>9.56</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4660,33 +4660,65 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>426416183</v>
+        <v>426416264</v>
       </c>
       <c r="B132" s="2">
-        <v>45517.576678240745</v>
+        <v>45517.57699074074</v>
       </c>
       <c r="C132" s="2">
         <v>45518</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
       </c>
       <c r="F132">
+        <v>4.86</v>
+      </c>
+      <c r="G132">
+        <v>0.91458</v>
+      </c>
+      <c r="H132">
+        <v>4.44</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>426416183</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45517.576678240745</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133">
         <v>102.05</v>
       </c>
-      <c r="G132">
+      <c r="G133">
         <v>0.91459</v>
       </c>
-      <c r="H132">
+      <c r="H133">
         <v>93.33</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
         <v>0</v>
       </c>
     </row>

--- a/assets/Trades.xlsx
+++ b/assets/Trades.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>AETF.GR</t>
+    <t>VUAA.EU</t>
   </si>
   <si>
     <t xml:space="preserve"> Buy </t>
   </si>
   <si>
-    <t>USD/EUR</t>
+    <t>AETF.GR</t>
   </si>
   <si>
-    <t>VUAA.EU</t>
+    <t>USD/EUR</t>
   </si>
   <si>
     <t>EQAC.EU</t>
@@ -463,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J137"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="22"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -500,13 +500,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>617433355</v>
+        <v>620543521</v>
       </c>
       <c r="B2" s="2">
-        <v>46058.33672453703</v>
+        <v>46066.45186342593</v>
       </c>
       <c r="C2" s="2">
-        <v>46061.95833333333</v>
+        <v>46070.95833333333</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -518,27 +518,27 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.44</v>
+        <v>131</v>
       </c>
       <c r="H2">
-        <v>61.44</v>
+        <v>131</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>616396794</v>
+        <v>620543504</v>
       </c>
       <c r="B3" s="2">
-        <v>46056.480520833335</v>
+        <v>46066.451678240745</v>
       </c>
       <c r="C3" s="2">
-        <v>46056.95833333333</v>
+        <v>46069.95833333333</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -547,30 +547,30 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>117.51</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.85099</v>
+        <v>59.53</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>59.53</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>611014113</v>
+        <v>617955866</v>
       </c>
       <c r="B4" s="2">
-        <v>46042.40130787037</v>
+        <v>46059.28494212963</v>
       </c>
       <c r="C4" s="2">
-        <v>46043.95833333333</v>
+        <v>46061.95833333333</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -579,33 +579,33 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>17.62</v>
       </c>
       <c r="G4">
-        <v>131.26</v>
+        <v>0.85119</v>
       </c>
       <c r="H4">
-        <v>131.26</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>610949467</v>
+        <v>617495840</v>
       </c>
       <c r="B5" s="2">
-        <v>46041.33980324074</v>
+        <v>46058.59511574074</v>
       </c>
       <c r="C5" s="2">
-        <v>46042.95833333333</v>
+        <v>46061.95833333333</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>132.2</v>
+        <v>130.78</v>
       </c>
       <c r="H5">
-        <v>132.2</v>
+        <v>130.78</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -628,60 +628,60 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>608925629</v>
+        <v>617433355</v>
       </c>
       <c r="B6" s="2">
-        <v>46035.31548611111</v>
+        <v>46058.33672453703</v>
       </c>
       <c r="C6" s="2">
-        <v>46036.95833333333</v>
+        <v>46061.95833333333</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>56.7</v>
+        <v>61.44</v>
       </c>
       <c r="H6">
-        <v>226.8</v>
+        <v>61.44</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.82</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>608923859</v>
+        <v>616396794</v>
       </c>
       <c r="B7" s="2">
-        <v>46035.30521990741</v>
+        <v>46056.480520833335</v>
       </c>
       <c r="C7" s="2">
-        <v>46035.95833333333</v>
+        <v>46056.95833333333</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>302.19</v>
+        <v>117.51</v>
       </c>
       <c r="G7">
-        <v>0.86037</v>
+        <v>0.85099</v>
       </c>
       <c r="H7">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,16 +692,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>607897752</v>
+        <v>611014113</v>
       </c>
       <c r="B8" s="2">
-        <v>46031.419953703706</v>
+        <v>46042.40130787037</v>
       </c>
       <c r="C8" s="2">
-        <v>46034.95833333333</v>
+        <v>46043.95833333333</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -710,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>133.16</v>
+        <v>131.26</v>
       </c>
       <c r="H8">
-        <v>133.16</v>
+        <v>131.26</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -724,109 +724,109 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>607448850</v>
+        <v>610949467</v>
       </c>
       <c r="B9" s="2">
-        <v>46030.52565972222</v>
+        <v>46041.33980324074</v>
       </c>
       <c r="C9" s="2">
-        <v>46030.95833333333</v>
+        <v>46042.95833333333</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>174.44</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8599</v>
+        <v>132.2</v>
       </c>
       <c r="H9">
-        <v>150.01</v>
+        <v>132.2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>604650426</v>
+        <v>608925629</v>
       </c>
       <c r="B10" s="2">
-        <v>46021.38538194445</v>
+        <v>46035.31548611111</v>
       </c>
       <c r="C10" s="2">
-        <v>46023.95833333333</v>
+        <v>46036.95833333333</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>54.19</v>
+        <v>56.7</v>
       </c>
       <c r="H10">
-        <v>108.38</v>
+        <v>226.8</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.49</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>598550485</v>
+        <v>608923859</v>
       </c>
       <c r="B11" s="2">
-        <v>46001.63391203704</v>
+        <v>46035.30521990741</v>
       </c>
       <c r="C11" s="2">
-        <v>46002.95833333333</v>
+        <v>46035.95833333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>302.19</v>
       </c>
       <c r="G11">
-        <v>437.25</v>
+        <v>0.86037</v>
       </c>
       <c r="H11">
-        <v>437.25</v>
+        <v>260</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>596219726</v>
+        <v>607897752</v>
       </c>
       <c r="B12" s="2">
-        <v>45994.43467592592</v>
+        <v>46031.419953703706</v>
       </c>
       <c r="C12" s="2">
-        <v>45995.95833333333</v>
+        <v>46034.95833333333</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -835,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>53.57</v>
+        <v>133.16</v>
       </c>
       <c r="H12">
-        <v>107.14</v>
+        <v>133.16</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,28 +852,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>595820593</v>
+        <v>607448850</v>
       </c>
       <c r="B13" s="2">
-        <v>45993.61094907408</v>
+        <v>46030.52565972222</v>
       </c>
       <c r="C13" s="2">
-        <v>45993.95833333333</v>
+        <v>46030.95833333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>300</v>
+        <v>174.44</v>
       </c>
       <c r="G13">
-        <v>1.1572</v>
+        <v>0.8599</v>
       </c>
       <c r="H13">
-        <v>347.16</v>
+        <v>150.01</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>592858794</v>
+        <v>604650426</v>
       </c>
       <c r="B14" s="2">
-        <v>45982.31758101852</v>
+        <v>46021.38538194445</v>
       </c>
       <c r="C14" s="2">
-        <v>45984.95833333333</v>
+        <v>46023.95833333333</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -899,33 +899,33 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>138.08</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0.86907</v>
+        <v>54.19</v>
       </c>
       <c r="H14">
-        <v>120</v>
+        <v>108.38</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>592858764</v>
+        <v>598550485</v>
       </c>
       <c r="B15" s="2">
-        <v>45982.31736111111</v>
+        <v>46001.63391203704</v>
       </c>
       <c r="C15" s="2">
-        <v>45985.95833333333</v>
+        <v>46002.95833333333</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -934,91 +934,91 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>125.7</v>
+        <v>437.25</v>
       </c>
       <c r="H15">
-        <v>125.7</v>
+        <v>437.25</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>591521660</v>
+        <v>596219726</v>
       </c>
       <c r="B16" s="2">
-        <v>45979.40392361111</v>
+        <v>45994.43467592592</v>
       </c>
       <c r="C16" s="2">
-        <v>45980.95833333333</v>
+        <v>45995.95833333333</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>51.58</v>
+        <v>53.57</v>
       </c>
       <c r="H16">
-        <v>51.58</v>
+        <v>107.14</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>591521571</v>
+        <v>595820593</v>
       </c>
       <c r="B17" s="2">
-        <v>45979.40299768519</v>
+        <v>45993.61094907408</v>
       </c>
       <c r="C17" s="2">
-        <v>45980.95833333333</v>
+        <v>45993.95833333333</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G17">
-        <v>127.64</v>
+        <v>1.1572</v>
       </c>
       <c r="H17">
-        <v>127.64</v>
+        <v>347.16</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>589647638</v>
+        <v>592858794</v>
       </c>
       <c r="B18" s="2">
-        <v>45973.3719212963</v>
+        <v>45982.31758101852</v>
       </c>
       <c r="C18" s="2">
-        <v>45974.95833333333</v>
+        <v>45984.95833333333</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1027,65 +1027,65 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>138.08</v>
       </c>
       <c r="G18">
-        <v>131.88</v>
+        <v>0.86907</v>
       </c>
       <c r="H18">
-        <v>131.88</v>
+        <v>120</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>589647623</v>
+        <v>592858764</v>
       </c>
       <c r="B19" s="2">
-        <v>45973.371666666666</v>
+        <v>45982.31736111111</v>
       </c>
       <c r="C19" s="2">
-        <v>45973.95833333333</v>
+        <v>45985.95833333333</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
       </c>
       <c r="F19">
-        <v>138.34</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.86743</v>
+        <v>125.7</v>
       </c>
       <c r="H19">
-        <v>120</v>
+        <v>125.7</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>589647528</v>
+        <v>591521660</v>
       </c>
       <c r="B20" s="2">
-        <v>45973.37055555556</v>
+        <v>45979.40392361111</v>
       </c>
       <c r="C20" s="2">
-        <v>45974.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>51.88</v>
+        <v>51.58</v>
       </c>
       <c r="H20">
-        <v>51.88</v>
+        <v>51.58</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>587179374</v>
+        <v>591521571</v>
       </c>
       <c r="B21" s="2">
-        <v>45965.315983796296</v>
+        <v>45979.40299768519</v>
       </c>
       <c r="C21" s="2">
-        <v>45966.95833333333</v>
+        <v>45980.95833333333</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1126,30 +1126,30 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.67</v>
+        <v>127.64</v>
       </c>
       <c r="H21">
-        <v>50.67</v>
+        <v>127.64</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>586793234</v>
+        <v>589647638</v>
       </c>
       <c r="B22" s="2">
-        <v>45964.60378472222</v>
+        <v>45973.3719212963</v>
       </c>
       <c r="C22" s="2">
-        <v>45965.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1158,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>130.9</v>
+        <v>131.88</v>
       </c>
       <c r="H22">
-        <v>130.9</v>
+        <v>131.88</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1172,28 +1172,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>586792895</v>
+        <v>589647623</v>
       </c>
       <c r="B23" s="2">
-        <v>45964.60346064815</v>
+        <v>45973.371666666666</v>
       </c>
       <c r="C23" s="2">
-        <v>45964.95833333333</v>
+        <v>45973.95833333333</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <v>286.74</v>
+        <v>138.34</v>
       </c>
       <c r="G23">
-        <v>0.87185</v>
+        <v>0.86743</v>
       </c>
       <c r="H23">
-        <v>249.99</v>
+        <v>120</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1204,16 +1204,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>585309488</v>
+        <v>589647528</v>
       </c>
       <c r="B24" s="2">
-        <v>45959.31539351852</v>
+        <v>45973.37055555556</v>
       </c>
       <c r="C24" s="2">
-        <v>45960.95833333333</v>
+        <v>45974.95833333333</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1222,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>51.01</v>
+        <v>51.88</v>
       </c>
       <c r="H24">
-        <v>51.01</v>
+        <v>51.88</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>581709074</v>
+        <v>587179374</v>
       </c>
       <c r="B25" s="2">
-        <v>45947.35291666667</v>
+        <v>45965.315983796296</v>
       </c>
       <c r="C25" s="2">
-        <v>45951</v>
+        <v>45966.95833333333</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1254,30 +1254,30 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.61</v>
+        <v>50.67</v>
       </c>
       <c r="H25">
-        <v>49.61</v>
+        <v>50.67</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>581709060</v>
+        <v>586793234</v>
       </c>
       <c r="B26" s="2">
-        <v>45947.35277777778</v>
+        <v>45964.60378472222</v>
       </c>
       <c r="C26" s="2">
-        <v>45951</v>
+        <v>45965.95833333333</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -1286,59 +1286,59 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>125.58</v>
+        <v>130.9</v>
       </c>
       <c r="H26">
-        <v>125.58</v>
+        <v>130.9</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>581269382</v>
+        <v>586792895</v>
       </c>
       <c r="B27" s="2">
-        <v>45946.41150462963</v>
+        <v>45964.60346064815</v>
       </c>
       <c r="C27" s="2">
-        <v>45950</v>
+        <v>45964.95833333333</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>286.74</v>
       </c>
       <c r="G27">
-        <v>50.94</v>
+        <v>0.87185</v>
       </c>
       <c r="H27">
-        <v>50.94</v>
+        <v>249.99</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>580169893</v>
+        <v>585309488</v>
       </c>
       <c r="B28" s="2">
-        <v>45943.423321759255</v>
+        <v>45959.31539351852</v>
       </c>
       <c r="C28" s="2">
-        <v>45944</v>
+        <v>45960.95833333333</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1347,33 +1347,33 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>80.87</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8656</v>
+        <v>51.01</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>51.01</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>580169868</v>
+        <v>581709074</v>
       </c>
       <c r="B29" s="2">
-        <v>45943.42288194444</v>
+        <v>45947.35291666667</v>
       </c>
       <c r="C29" s="2">
-        <v>45945</v>
+        <v>45951</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1382,30 +1382,30 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>53.65</v>
+        <v>49.61</v>
       </c>
       <c r="H29">
-        <v>53.65</v>
+        <v>49.61</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>580169327</v>
+        <v>581709060</v>
       </c>
       <c r="B30" s="2">
-        <v>45943.41800925926</v>
+        <v>45947.35277777778</v>
       </c>
       <c r="C30" s="2">
-        <v>45945</v>
+        <v>45951</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1414,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>127.32</v>
+        <v>125.58</v>
       </c>
       <c r="H30">
-        <v>127.32</v>
+        <v>125.58</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>579211549</v>
+        <v>581269382</v>
       </c>
       <c r="B31" s="2">
-        <v>45939.61756944444</v>
+        <v>45946.41150462963</v>
       </c>
       <c r="C31" s="2">
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1446,62 +1446,62 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>129.08</v>
+        <v>50.94</v>
       </c>
       <c r="H31">
-        <v>129.08</v>
+        <v>50.94</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>577313732</v>
+        <v>580169893</v>
       </c>
       <c r="B32" s="2">
-        <v>45933.56972222222</v>
+        <v>45943.423321759255</v>
       </c>
       <c r="C32" s="2">
-        <v>45937</v>
+        <v>45944</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>80.87</v>
       </c>
       <c r="G32">
-        <v>52.65</v>
+        <v>0.8656</v>
       </c>
       <c r="H32">
-        <v>105.3</v>
+        <v>70</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>576413456</v>
+        <v>580169868</v>
       </c>
       <c r="B33" s="2">
-        <v>45931.44907407407</v>
+        <v>45943.42288194444</v>
       </c>
       <c r="C33" s="2">
-        <v>45933</v>
+        <v>45945</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.62</v>
+        <v>53.65</v>
       </c>
       <c r="H33">
-        <v>51.62</v>
+        <v>53.65</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1524,45 +1524,45 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>576410571</v>
+        <v>580169327</v>
       </c>
       <c r="B34" s="2">
-        <v>45931.43001157408</v>
+        <v>45943.41800925926</v>
       </c>
       <c r="C34" s="2">
-        <v>45932</v>
+        <v>45945</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34">
-        <v>116.85</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.85583</v>
+        <v>127.32</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>127.32</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>575554915</v>
+        <v>579211549</v>
       </c>
       <c r="B35" s="2">
-        <v>45929.452060185184</v>
+        <v>45939.61756944444</v>
       </c>
       <c r="C35" s="2">
-        <v>45931</v>
+        <v>45943</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1574,42 +1574,42 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.47</v>
+        <v>129.08</v>
       </c>
       <c r="H35">
-        <v>51.47</v>
+        <v>129.08</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>573400676</v>
+        <v>577313732</v>
       </c>
       <c r="B36" s="2">
-        <v>45922.33627314815</v>
+        <v>45933.56972222222</v>
       </c>
       <c r="C36" s="2">
-        <v>45924</v>
+        <v>45937</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>127.36</v>
+        <v>52.65</v>
       </c>
       <c r="H36">
-        <v>127.36</v>
+        <v>105.3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>573399341</v>
+        <v>576413456</v>
       </c>
       <c r="B37" s="2">
-        <v>45922.324120370366</v>
+        <v>45931.44907407407</v>
       </c>
       <c r="C37" s="2">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51</v>
+        <v>51.62</v>
       </c>
       <c r="H37">
-        <v>51</v>
+        <v>51.62</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1652,28 +1652,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>568717926</v>
+        <v>576410571</v>
       </c>
       <c r="B38" s="2">
-        <v>45905.5246875</v>
+        <v>45931.43001157408</v>
       </c>
       <c r="C38" s="2">
-        <v>45908</v>
+        <v>45932</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38">
-        <v>125</v>
+        <v>116.85</v>
       </c>
       <c r="G38">
-        <v>0.85539</v>
+        <v>0.85583</v>
       </c>
       <c r="H38">
-        <v>106.92</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1684,16 +1684,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>567931751</v>
+        <v>575554915</v>
       </c>
       <c r="B39" s="2">
-        <v>45903.333657407406</v>
+        <v>45929.452060185184</v>
       </c>
       <c r="C39" s="2">
-        <v>45905</v>
+        <v>45931</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1702,62 +1702,62 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>123.16</v>
+        <v>51.47</v>
       </c>
       <c r="H39">
-        <v>123.16</v>
+        <v>51.47</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>566723916</v>
+        <v>573400676</v>
       </c>
       <c r="B40" s="2">
-        <v>45897.62657407408</v>
+        <v>45922.33627314815</v>
       </c>
       <c r="C40" s="2">
-        <v>45898</v>
+        <v>45924</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>290.69</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.86002</v>
+        <v>127.36</v>
       </c>
       <c r="H40">
-        <v>250</v>
+        <v>127.36</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>564426812</v>
+        <v>573399341</v>
       </c>
       <c r="B41" s="2">
-        <v>45889.61331018519</v>
+        <v>45922.324120370366</v>
       </c>
       <c r="C41" s="2">
-        <v>45891</v>
+        <v>45924</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1766,42 +1766,42 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>121.62</v>
+        <v>51</v>
       </c>
       <c r="H41">
-        <v>121.62</v>
+        <v>51</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>564420621</v>
+        <v>568717926</v>
       </c>
       <c r="B42" s="2">
-        <v>45889.60018518519</v>
+        <v>45905.5246875</v>
       </c>
       <c r="C42" s="2">
-        <v>45890</v>
+        <v>45908</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>127.71</v>
+        <v>125</v>
       </c>
       <c r="G42">
-        <v>0.86135</v>
+        <v>0.85539</v>
       </c>
       <c r="H42">
-        <v>110</v>
+        <v>106.92</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1812,80 +1812,80 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>555657178</v>
+        <v>567931751</v>
       </c>
       <c r="B43" s="2">
-        <v>45859.48091435185</v>
+        <v>45903.333657407406</v>
       </c>
       <c r="C43" s="2">
-        <v>45860</v>
+        <v>45905</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.85771</v>
+        <v>123.16</v>
       </c>
       <c r="H43">
-        <v>85.77</v>
+        <v>123.16</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>555654532</v>
+        <v>566723916</v>
       </c>
       <c r="B44" s="2">
-        <v>45859.465474537035</v>
+        <v>45897.62657407408</v>
       </c>
       <c r="C44" s="2">
-        <v>45861</v>
+        <v>45898</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>290.69</v>
       </c>
       <c r="G44">
-        <v>395</v>
+        <v>0.86002</v>
       </c>
       <c r="H44">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>551218217</v>
+        <v>564426812</v>
       </c>
       <c r="B45" s="2">
-        <v>45841.369837962964</v>
+        <v>45889.61331018519</v>
       </c>
       <c r="C45" s="2">
-        <v>45845</v>
+        <v>45891</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -1894,42 +1894,42 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>119.16</v>
+        <v>121.62</v>
       </c>
       <c r="H45">
-        <v>119.16</v>
+        <v>121.62</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>551216497</v>
+        <v>564420621</v>
       </c>
       <c r="B46" s="2">
-        <v>45841.35429398148</v>
+        <v>45889.60018518519</v>
       </c>
       <c r="C46" s="2">
-        <v>45845</v>
+        <v>45890</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46">
-        <v>200</v>
+        <v>127.71</v>
       </c>
       <c r="G46">
-        <v>0.84741</v>
+        <v>0.86135</v>
       </c>
       <c r="H46">
-        <v>169.48</v>
+        <v>110</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1940,28 +1940,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>549290062</v>
+        <v>555657178</v>
       </c>
       <c r="B47" s="2">
-        <v>45834.39111111111</v>
+        <v>45859.48091435185</v>
       </c>
       <c r="C47" s="2">
-        <v>45835</v>
+        <v>45860</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G47">
-        <v>0.85337</v>
+        <v>0.85771</v>
       </c>
       <c r="H47">
-        <v>99.84</v>
+        <v>85.77</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>546584060</v>
+        <v>555654532</v>
       </c>
       <c r="B48" s="2">
-        <v>45824.480104166665</v>
+        <v>45859.465474537035</v>
       </c>
       <c r="C48" s="2">
-        <v>45826</v>
+        <v>45861</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1990,74 +1990,74 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>114.8</v>
+        <v>395</v>
       </c>
       <c r="H48">
-        <v>114.8</v>
+        <v>395</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>546583898</v>
+        <v>551218217</v>
       </c>
       <c r="B49" s="2">
-        <v>45824.47923611111</v>
+        <v>45841.369837962964</v>
       </c>
       <c r="C49" s="2">
-        <v>45825</v>
+        <v>45845</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.86376</v>
+        <v>119.16</v>
       </c>
       <c r="H49">
-        <v>99.33</v>
+        <v>119.16</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>545459805</v>
+        <v>551216497</v>
       </c>
       <c r="B50" s="2">
-        <v>45819.41773148148</v>
+        <v>45841.35429398148</v>
       </c>
       <c r="C50" s="2">
-        <v>45820</v>
+        <v>45845</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G50">
-        <v>0.87444</v>
+        <v>0.84741</v>
       </c>
       <c r="H50">
-        <v>43.72</v>
+        <v>169.48</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>542145647</v>
+        <v>549290062</v>
       </c>
       <c r="B51" s="2">
-        <v>45807.5672337963</v>
+        <v>45834.39111111111</v>
       </c>
       <c r="C51" s="2">
-        <v>45811</v>
+        <v>45835</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
@@ -2083,62 +2083,62 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G51">
-        <v>112.4</v>
+        <v>0.85337</v>
       </c>
       <c r="H51">
-        <v>112.4</v>
+        <v>99.84</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>541352365</v>
+        <v>546584060</v>
       </c>
       <c r="B52" s="2">
-        <v>45805.594560185185</v>
+        <v>45824.480104166665</v>
       </c>
       <c r="C52" s="2">
-        <v>45806</v>
+        <v>45826</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52">
-        <v>169.82</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0.88332</v>
+        <v>114.8</v>
       </c>
       <c r="H52">
-        <v>150.01</v>
+        <v>114.8</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>540397794</v>
+        <v>546583898</v>
       </c>
       <c r="B53" s="2">
-        <v>45800.4953125</v>
+        <v>45824.47923611111</v>
       </c>
       <c r="C53" s="2">
-        <v>45805</v>
+        <v>45825</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -2147,45 +2147,45 @@
         <v>11</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G53">
-        <v>110.1385</v>
+        <v>0.86376</v>
       </c>
       <c r="H53">
-        <v>110.14</v>
+        <v>99.33</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>539546182</v>
+        <v>545459805</v>
       </c>
       <c r="B54" s="2">
-        <v>45798.38793981481</v>
+        <v>45819.41773148148</v>
       </c>
       <c r="C54" s="2">
-        <v>45799</v>
+        <v>45820</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G54">
-        <v>0.88321</v>
+        <v>0.87444</v>
       </c>
       <c r="H54">
-        <v>88.32</v>
+        <v>43.72</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>530748416</v>
+        <v>542145647</v>
       </c>
       <c r="B55" s="2">
-        <v>45777.621458333335</v>
+        <v>45807.5672337963</v>
       </c>
       <c r="C55" s="2">
-        <v>45779</v>
+        <v>45811</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -2214,42 +2214,42 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>327.9</v>
+        <v>112.4</v>
       </c>
       <c r="H55">
-        <v>327.9</v>
+        <v>112.4</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>1.93</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>530748345</v>
+        <v>541352365</v>
       </c>
       <c r="B56" s="2">
-        <v>45777.62107638889</v>
+        <v>45805.594560185185</v>
       </c>
       <c r="C56" s="2">
-        <v>45778</v>
+        <v>45806</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>30</v>
+        <v>169.82</v>
       </c>
       <c r="G56">
-        <v>0.88043</v>
+        <v>0.88332</v>
       </c>
       <c r="H56">
-        <v>26.41</v>
+        <v>150.01</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2260,60 +2260,60 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>530748166</v>
+        <v>540397794</v>
       </c>
       <c r="B57" s="2">
-        <v>45777.62068287037</v>
+        <v>45800.4953125</v>
       </c>
       <c r="C57" s="2">
-        <v>45778</v>
+        <v>45805</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.8804</v>
+        <v>110.1385</v>
       </c>
       <c r="H57">
-        <v>264.12</v>
+        <v>110.14</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>528304116</v>
+        <v>539546182</v>
       </c>
       <c r="B58" s="2">
-        <v>45771.59101851852</v>
+        <v>45798.38793981481</v>
       </c>
       <c r="C58" s="2">
-        <v>45772</v>
+        <v>45799</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>0.87843</v>
+        <v>0.88321</v>
       </c>
       <c r="H58">
-        <v>74.67</v>
+        <v>88.32</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2324,16 +2324,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>525384379</v>
+        <v>530748416</v>
       </c>
       <c r="B59" s="2">
-        <v>45763.63711805556</v>
+        <v>45777.621458333335</v>
       </c>
       <c r="C59" s="2">
-        <v>45769</v>
+        <v>45779</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -2342,42 +2342,42 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>101.9</v>
+        <v>327.9</v>
       </c>
       <c r="H59">
-        <v>101.9</v>
+        <v>327.9</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>525383965</v>
+        <v>530748345</v>
       </c>
       <c r="B60" s="2">
-        <v>45763.634826388894</v>
+        <v>45777.62107638889</v>
       </c>
       <c r="C60" s="2">
-        <v>45764</v>
+        <v>45778</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>0.87888</v>
+        <v>0.88043</v>
       </c>
       <c r="H60">
-        <v>65.92</v>
+        <v>26.41</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>521135744</v>
+        <v>530748166</v>
       </c>
       <c r="B61" s="2">
-        <v>45754.608506944445</v>
+        <v>45777.62068287037</v>
       </c>
       <c r="C61" s="2">
-        <v>45756</v>
+        <v>45778</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2403,45 +2403,45 @@
         <v>11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G61">
-        <v>95</v>
+        <v>0.8804</v>
       </c>
       <c r="H61">
-        <v>95</v>
+        <v>264.12</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>521115122</v>
+        <v>528304116</v>
       </c>
       <c r="B62" s="2">
-        <v>45754.593506944446</v>
+        <v>45771.59101851852</v>
       </c>
       <c r="C62" s="2">
-        <v>45755</v>
+        <v>45772</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62">
-        <v>109.66</v>
+        <v>85</v>
       </c>
       <c r="G62">
-        <v>0.91206</v>
+        <v>0.87843</v>
       </c>
       <c r="H62">
-        <v>100.02</v>
+        <v>74.67</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2452,16 +2452,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>519105737</v>
+        <v>525384379</v>
       </c>
       <c r="B63" s="2">
-        <v>45749.575324074074</v>
+        <v>45763.63711805556</v>
       </c>
       <c r="C63" s="2">
-        <v>45751</v>
+        <v>45769</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2470,42 +2470,42 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>330.5499</v>
+        <v>101.9</v>
       </c>
       <c r="H63">
-        <v>330.55</v>
+        <v>101.9</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>519105619</v>
+        <v>525383965</v>
       </c>
       <c r="B64" s="2">
-        <v>45749.575115740736</v>
+        <v>45763.634826388894</v>
       </c>
       <c r="C64" s="2">
-        <v>45750</v>
+        <v>45764</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="G64">
-        <v>0.92423</v>
+        <v>0.87888</v>
       </c>
       <c r="H64">
-        <v>305</v>
+        <v>65.92</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>518501268</v>
+        <v>521135744</v>
       </c>
       <c r="B65" s="2">
-        <v>45748.342511574076</v>
+        <v>45754.608506944445</v>
       </c>
       <c r="C65" s="2">
-        <v>45750</v>
+        <v>45756</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -2534,42 +2534,42 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>106.7</v>
+        <v>95</v>
       </c>
       <c r="H65">
-        <v>106.7</v>
+        <v>95</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>518501204</v>
+        <v>521115122</v>
       </c>
       <c r="B66" s="2">
-        <v>45748.342199074075</v>
+        <v>45754.593506944446</v>
       </c>
       <c r="C66" s="2">
-        <v>45749</v>
+        <v>45755</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66">
-        <v>118.85</v>
+        <v>109.66</v>
       </c>
       <c r="G66">
-        <v>0.92553</v>
+        <v>0.91206</v>
       </c>
       <c r="H66">
-        <v>110</v>
+        <v>100.02</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2580,16 +2580,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>510327986</v>
+        <v>519105737</v>
       </c>
       <c r="B67" s="2">
-        <v>45728.454201388886</v>
+        <v>45749.575324074074</v>
       </c>
       <c r="C67" s="2">
-        <v>45729.95833333333</v>
+        <v>45751</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -2598,42 +2598,42 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>107</v>
+        <v>330.5499</v>
       </c>
       <c r="H67">
-        <v>107</v>
+        <v>330.55</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>510326670</v>
+        <v>519105619</v>
       </c>
       <c r="B68" s="2">
-        <v>45728.43972222222</v>
+        <v>45749.575115740736</v>
       </c>
       <c r="C68" s="2">
-        <v>45728.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68">
-        <v>114.54</v>
+        <v>330</v>
       </c>
       <c r="G68">
-        <v>0.91668</v>
+        <v>0.92423</v>
       </c>
       <c r="H68">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2644,16 +2644,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>506086900</v>
+        <v>518501268</v>
       </c>
       <c r="B69" s="2">
-        <v>45719.31646990741</v>
+        <v>45748.342511574076</v>
       </c>
       <c r="C69" s="2">
-        <v>45720.95833333333</v>
+        <v>45750</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2662,42 +2662,42 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>355.9998</v>
+        <v>106.7</v>
       </c>
       <c r="H69">
-        <v>356</v>
+        <v>106.7</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>506086612</v>
+        <v>518501204</v>
       </c>
       <c r="B70" s="2">
-        <v>45719.31418981482</v>
+        <v>45748.342199074075</v>
       </c>
       <c r="C70" s="2">
-        <v>45719.95833333333</v>
+        <v>45749</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>9.74</v>
+        <v>118.85</v>
       </c>
       <c r="G70">
-        <v>0.96213</v>
+        <v>0.92553</v>
       </c>
       <c r="H70">
-        <v>9.37</v>
+        <v>110</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2708,60 +2708,60 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>506084312</v>
+        <v>510327986</v>
       </c>
       <c r="B71" s="2">
-        <v>45719.29939814815</v>
+        <v>45728.454201388886</v>
       </c>
       <c r="C71" s="2">
-        <v>45719.95833333333</v>
+        <v>45729.95833333333</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>204.2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.96116</v>
+        <v>107</v>
       </c>
       <c r="H71">
-        <v>196.27</v>
+        <v>107</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>505408659</v>
+        <v>510326670</v>
       </c>
       <c r="B72" s="2">
-        <v>45716.45657407407</v>
+        <v>45728.43972222222</v>
       </c>
       <c r="C72" s="2">
-        <v>45718.95833333333</v>
+        <v>45728.95833333333</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>129.21</v>
+        <v>114.54</v>
       </c>
       <c r="G72">
-        <v>0.96171</v>
+        <v>0.91668</v>
       </c>
       <c r="H72">
-        <v>124.26</v>
+        <v>105</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>503618898</v>
+        <v>506086900</v>
       </c>
       <c r="B73" s="2">
-        <v>45713.606828703705</v>
+        <v>45719.31646990741</v>
       </c>
       <c r="C73" s="2">
-        <v>45714.95833333333</v>
+        <v>45720.95833333333</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2790,42 +2790,42 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>112.86</v>
+        <v>355.9998</v>
       </c>
       <c r="H73">
-        <v>112.86</v>
+        <v>356</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>1.48</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>503618686</v>
+        <v>506086612</v>
       </c>
       <c r="B74" s="2">
-        <v>45713.60653935185</v>
+        <v>45719.31418981482</v>
       </c>
       <c r="C74" s="2">
-        <v>45713.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74">
-        <v>120</v>
+        <v>9.74</v>
       </c>
       <c r="G74">
-        <v>0.9511</v>
+        <v>0.96213</v>
       </c>
       <c r="H74">
-        <v>114.13</v>
+        <v>9.37</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2836,60 +2836,60 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>499625741</v>
+        <v>506084312</v>
       </c>
       <c r="B75" s="2">
-        <v>45702.56398148148</v>
+        <v>45719.29939814815</v>
       </c>
       <c r="C75" s="2">
-        <v>45705.95833333333</v>
+        <v>45719.95833333333</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>204.2</v>
       </c>
       <c r="G75">
-        <v>375.25</v>
+        <v>0.96116</v>
       </c>
       <c r="H75">
-        <v>375.25</v>
+        <v>196.27</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>499590185</v>
+        <v>505408659</v>
       </c>
       <c r="B76" s="2">
-        <v>45702.36454861111</v>
+        <v>45716.45657407407</v>
       </c>
       <c r="C76" s="2">
-        <v>45705.95833333333</v>
+        <v>45718.95833333333</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76">
-        <v>20.96</v>
+        <v>129.21</v>
       </c>
       <c r="G76">
-        <v>0.95429</v>
+        <v>0.96171</v>
       </c>
       <c r="H76">
-        <v>20</v>
+        <v>124.26</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2900,45 +2900,45 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>498403616</v>
+        <v>503618898</v>
       </c>
       <c r="B77" s="2">
-        <v>45700.59783564815</v>
+        <v>45713.606828703705</v>
       </c>
       <c r="C77" s="2">
-        <v>45700.95833333333</v>
+        <v>45714.95833333333</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77">
-        <v>103.4</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.96693</v>
+        <v>112.86</v>
       </c>
       <c r="H77">
-        <v>99.98</v>
+        <v>112.86</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>494107867</v>
+        <v>503618686</v>
       </c>
       <c r="B78" s="2">
-        <v>45691.58335648148</v>
+        <v>45713.60653935185</v>
       </c>
       <c r="C78" s="2">
-        <v>45692.95833333333</v>
+        <v>45713.95833333333</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2947,62 +2947,62 @@
         <v>11</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G78">
-        <v>112.9</v>
+        <v>0.9511</v>
       </c>
       <c r="H78">
-        <v>112.9</v>
+        <v>114.13</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>494049655</v>
+        <v>499625741</v>
       </c>
       <c r="B79" s="2">
-        <v>45691.31773148148</v>
+        <v>45702.56398148148</v>
       </c>
       <c r="C79" s="2">
-        <v>45691.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79">
-        <v>307.46</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.97578</v>
+        <v>375.25</v>
       </c>
       <c r="H79">
-        <v>300.01</v>
+        <v>375.25</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>494049572</v>
+        <v>499590185</v>
       </c>
       <c r="B80" s="2">
-        <v>45691.31670138889</v>
+        <v>45702.36454861111</v>
       </c>
       <c r="C80" s="2">
-        <v>45692.95833333333</v>
+        <v>45705.95833333333</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -3011,30 +3011,30 @@
         <v>11</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>20.96</v>
       </c>
       <c r="G80">
-        <v>113.34</v>
+        <v>0.95429</v>
       </c>
       <c r="H80">
-        <v>113.34</v>
+        <v>20</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>493368805</v>
+        <v>498403616</v>
       </c>
       <c r="B81" s="2">
-        <v>45688.32907407408</v>
+        <v>45700.59783564815</v>
       </c>
       <c r="C81" s="2">
-        <v>45691.95833333333</v>
+        <v>45700.95833333333</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -3043,62 +3043,62 @@
         <v>11</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>103.4</v>
       </c>
       <c r="G81">
-        <v>115.9</v>
+        <v>0.96693</v>
       </c>
       <c r="H81">
-        <v>231.8</v>
+        <v>99.98</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>492836969</v>
+        <v>494107867</v>
       </c>
       <c r="B82" s="2">
-        <v>45687.621666666666</v>
+        <v>45691.58335648148</v>
       </c>
       <c r="C82" s="2">
-        <v>45687.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82">
-        <v>417.21</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0.95874</v>
+        <v>112.9</v>
       </c>
       <c r="H82">
-        <v>400</v>
+        <v>112.9</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>491075870</v>
+        <v>494049655</v>
       </c>
       <c r="B83" s="2">
-        <v>45684.61530092593</v>
+        <v>45691.31773148148</v>
       </c>
       <c r="C83" s="2">
-        <v>45685.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -3107,109 +3107,109 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>307.46</v>
       </c>
       <c r="G83">
-        <v>114.4</v>
+        <v>0.97578</v>
       </c>
       <c r="H83">
-        <v>114.4</v>
+        <v>300.01</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>491075618</v>
+        <v>494049572</v>
       </c>
       <c r="B84" s="2">
-        <v>45684.61476851851</v>
+        <v>45691.31670138889</v>
       </c>
       <c r="C84" s="2">
-        <v>45684.95833333333</v>
+        <v>45692.95833333333</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>115.46</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0.95269</v>
+        <v>113.34</v>
       </c>
       <c r="H84">
-        <v>110</v>
+        <v>113.34</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>483911545</v>
+        <v>493368805</v>
       </c>
       <c r="B85" s="2">
-        <v>45665.44930555555</v>
+        <v>45688.32907407408</v>
       </c>
       <c r="C85" s="2">
-        <v>45666.95833333333</v>
+        <v>45691.95833333333</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>360.35</v>
+        <v>115.9</v>
       </c>
       <c r="H85">
-        <v>360.35</v>
+        <v>231.8</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>483911481</v>
+        <v>492836969</v>
       </c>
       <c r="B86" s="2">
-        <v>45665.44840277778</v>
+        <v>45687.621666666666</v>
       </c>
       <c r="C86" s="2">
-        <v>45666.95833333333</v>
+        <v>45687.95833333333</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>365</v>
+        <v>417.21</v>
       </c>
       <c r="G86">
-        <v>0.97183</v>
+        <v>0.95874</v>
       </c>
       <c r="H86">
-        <v>354.72</v>
+        <v>400</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3220,60 +3220,60 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>481235383</v>
+        <v>491075870</v>
       </c>
       <c r="B87" s="2">
-        <v>45660.337430555555</v>
+        <v>45684.61530092593</v>
       </c>
       <c r="C87" s="2">
-        <v>45663.95833333333</v>
+        <v>45685.95833333333</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>112</v>
+        <v>114.4</v>
       </c>
       <c r="H87">
-        <v>224</v>
+        <v>114.4</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>481235152</v>
+        <v>491075618</v>
       </c>
       <c r="B88" s="2">
-        <v>45660.33241898148</v>
+        <v>45684.61476851851</v>
       </c>
       <c r="C88" s="2">
-        <v>45662.95833333333</v>
+        <v>45684.95833333333</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88">
-        <v>226.2</v>
+        <v>115.46</v>
       </c>
       <c r="G88">
-        <v>0.97259</v>
+        <v>0.95269</v>
       </c>
       <c r="H88">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>476674643</v>
+        <v>483911545</v>
       </c>
       <c r="B89" s="2">
-        <v>45646.40855324074</v>
+        <v>45665.44930555555</v>
       </c>
       <c r="C89" s="2">
-        <v>45652.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -3302,42 +3302,42 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>355.4</v>
+        <v>360.35</v>
       </c>
       <c r="H89">
-        <v>355.4</v>
+        <v>360.35</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>476674604</v>
+        <v>483911481</v>
       </c>
       <c r="B90" s="2">
-        <v>45646.408437499995</v>
+        <v>45665.44840277778</v>
       </c>
       <c r="C90" s="2">
-        <v>45648.95833333333</v>
+        <v>45666.95833333333</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="G90">
-        <v>0.96264</v>
+        <v>0.97183</v>
       </c>
       <c r="H90">
-        <v>206.97</v>
+        <v>354.72</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3348,60 +3348,60 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>476670294</v>
+        <v>481235383</v>
       </c>
       <c r="B91" s="2">
-        <v>45646.38765046296</v>
+        <v>45660.337430555555</v>
       </c>
       <c r="C91" s="2">
-        <v>45648.95833333333</v>
+        <v>45663.95833333333</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91">
-        <v>51.32</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>0.96299</v>
+        <v>112</v>
       </c>
       <c r="H91">
-        <v>49.42</v>
+        <v>224</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>476669731</v>
+        <v>481235152</v>
       </c>
       <c r="B92" s="2">
-        <v>45646.38260416666</v>
+        <v>45660.33241898148</v>
       </c>
       <c r="C92" s="2">
-        <v>45648.95833333333</v>
+        <v>45662.95833333333</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="F92">
-        <v>60</v>
+        <v>226.2</v>
       </c>
       <c r="G92">
-        <v>0.96251</v>
+        <v>0.97259</v>
       </c>
       <c r="H92">
-        <v>57.75</v>
+        <v>220</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3412,16 +3412,16 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>476123556</v>
+        <v>476674643</v>
       </c>
       <c r="B93" s="2">
-        <v>45645.526817129634</v>
+        <v>45646.40855324074</v>
       </c>
       <c r="C93" s="2">
-        <v>45648.95833333333</v>
+        <v>45652.95833333333</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3430,42 +3430,42 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>112.54</v>
+        <v>355.4</v>
       </c>
       <c r="H93">
-        <v>112.54</v>
+        <v>355.4</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>476123515</v>
+        <v>476674604</v>
       </c>
       <c r="B94" s="2">
-        <v>45645.52649305556</v>
+        <v>45646.408437499995</v>
       </c>
       <c r="C94" s="2">
-        <v>45645.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G94">
-        <v>0.96108</v>
+        <v>0.96264</v>
       </c>
       <c r="H94">
-        <v>96.11</v>
+        <v>206.97</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3476,109 +3476,109 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>471357479</v>
+        <v>476670294</v>
       </c>
       <c r="B95" s="2">
-        <v>45635.56259259259</v>
+        <v>45646.38765046296</v>
       </c>
       <c r="C95" s="2">
-        <v>45635.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>51.32</v>
       </c>
       <c r="G95">
-        <v>8.3412</v>
+        <v>0.96299</v>
       </c>
       <c r="H95">
-        <v>8.34</v>
+        <v>49.42</v>
       </c>
       <c r="I95">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>466623419</v>
+        <v>476669731</v>
       </c>
       <c r="B96" s="2">
-        <v>45622.31217592592</v>
+        <v>45646.38260416666</v>
       </c>
       <c r="C96" s="2">
-        <v>45624.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G96">
-        <v>354.5</v>
+        <v>0.96251</v>
       </c>
       <c r="H96">
-        <v>354.5</v>
+        <v>57.75</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>466623402</v>
+        <v>476123556</v>
       </c>
       <c r="B97" s="2">
-        <v>45622.31188657407</v>
+        <v>45645.526817129634</v>
       </c>
       <c r="C97" s="2">
-        <v>45622.95833333333</v>
+        <v>45648.95833333333</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
       </c>
       <c r="F97">
-        <v>141.78</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.95389</v>
+        <v>112.54</v>
       </c>
       <c r="H97">
-        <v>135.24</v>
+        <v>112.54</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>462598648</v>
+        <v>476123515</v>
       </c>
       <c r="B98" s="2">
-        <v>45611.592997685184</v>
+        <v>45645.52649305556</v>
       </c>
       <c r="C98" s="2">
-        <v>45614.95833333333</v>
+        <v>45645.95833333333</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -3587,33 +3587,33 @@
         <v>11</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G98">
-        <v>111.8099</v>
+        <v>0.96108</v>
       </c>
       <c r="H98">
-        <v>111.81</v>
+        <v>96.11</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>460084933</v>
+        <v>471357479</v>
       </c>
       <c r="B99" s="2">
-        <v>45604.62016203704</v>
+        <v>45635.56259259259</v>
       </c>
       <c r="C99" s="2">
-        <v>45607.95833333333</v>
+        <v>45635.95833333333</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -3622,13 +3622,13 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>8.3836</v>
+        <v>8.3412</v>
       </c>
       <c r="H99">
-        <v>8.38</v>
+        <v>8.34</v>
       </c>
       <c r="I99">
-        <v>8.38</v>
+        <v>8.34</v>
       </c>
       <c r="J99">
         <v>1.23</v>
@@ -3636,45 +3636,45 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>458847628</v>
+        <v>466623419</v>
       </c>
       <c r="B100" s="2">
-        <v>45602.26765046296</v>
+        <v>45622.31217592592</v>
       </c>
       <c r="C100" s="2">
-        <v>45602.95833333333</v>
+        <v>45624.95833333333</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>341.65</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0.93077</v>
+        <v>354.5</v>
       </c>
       <c r="H100">
-        <v>318</v>
+        <v>354.5</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>449590057</v>
+        <v>466623402</v>
       </c>
       <c r="B101" s="2">
-        <v>45579.62847222222</v>
+        <v>45622.31188657407</v>
       </c>
       <c r="C101" s="2">
-        <v>45581</v>
+        <v>45622.95833333333</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
@@ -3683,129 +3683,129 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>141.78</v>
       </c>
       <c r="G101">
-        <v>110.9161</v>
+        <v>0.95389</v>
       </c>
       <c r="H101">
-        <v>110.92</v>
+        <v>135.24</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>449589875</v>
+        <v>462598648</v>
       </c>
       <c r="B102" s="2">
-        <v>45579.628125</v>
+        <v>45611.592997685184</v>
       </c>
       <c r="C102" s="2">
-        <v>45580</v>
+        <v>45614.95833333333</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0.91628</v>
+        <v>111.8099</v>
       </c>
       <c r="H102">
-        <v>32.07</v>
+        <v>111.81</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>449589083</v>
+        <v>460084933</v>
       </c>
       <c r="B103" s="2">
-        <v>45579.62637731481</v>
+        <v>45604.62016203704</v>
       </c>
       <c r="C103" s="2">
-        <v>45581</v>
+        <v>45607.95833333333</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="G103">
-        <v>110.9196</v>
+        <v>8.3836</v>
       </c>
       <c r="H103">
-        <v>110.92</v>
+        <v>8.38</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>8.38</v>
       </c>
       <c r="J103">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>449588246</v>
+        <v>458847628</v>
       </c>
       <c r="B104" s="2">
-        <v>45579.62483796296</v>
+        <v>45602.26765046296</v>
       </c>
       <c r="C104" s="2">
-        <v>45581</v>
+        <v>45602.95833333333</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F104">
-        <v>43</v>
+        <v>341.65</v>
       </c>
       <c r="G104">
-        <v>3.4715</v>
+        <v>0.93077</v>
       </c>
       <c r="H104">
-        <v>149.27</v>
+        <v>318</v>
       </c>
       <c r="I104">
-        <v>-7.35</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>2.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>445429841</v>
+        <v>449590057</v>
       </c>
       <c r="B105" s="2">
-        <v>45568.57361111111</v>
+        <v>45579.62847222222</v>
       </c>
       <c r="C105" s="2">
-        <v>45572</v>
+        <v>45581</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3814,42 +3814,42 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>337.65</v>
+        <v>110.9161</v>
       </c>
       <c r="H105">
-        <v>337.65</v>
+        <v>110.92</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>445429174</v>
+        <v>449589875</v>
       </c>
       <c r="B106" s="2">
-        <v>45568.57231481481</v>
+        <v>45579.628125</v>
       </c>
       <c r="C106" s="2">
-        <v>45569</v>
+        <v>45580</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
       <c r="F106">
-        <v>369.23</v>
+        <v>35</v>
       </c>
       <c r="G106">
-        <v>0.90605</v>
+        <v>0.91628</v>
       </c>
       <c r="H106">
-        <v>334.54</v>
+        <v>32.07</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -3860,16 +3860,16 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>444353954</v>
+        <v>449589083</v>
       </c>
       <c r="B107" s="2">
-        <v>45566.58853009259</v>
+        <v>45579.62637731481</v>
       </c>
       <c r="C107" s="2">
-        <v>45568</v>
+        <v>45581</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3878,91 +3878,91 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>108.24</v>
+        <v>110.9196</v>
       </c>
       <c r="H107">
-        <v>108.24</v>
+        <v>110.92</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>444310921</v>
+        <v>449588246</v>
       </c>
       <c r="B108" s="2">
-        <v>45566.29953703703</v>
+        <v>45579.62483796296</v>
       </c>
       <c r="C108" s="2">
-        <v>45567</v>
+        <v>45581</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F108">
-        <v>60.56</v>
+        <v>43</v>
       </c>
       <c r="G108">
-        <v>0.89984</v>
+        <v>3.4715</v>
       </c>
       <c r="H108">
-        <v>54.49</v>
+        <v>149.27</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>-7.35</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>439936166</v>
+        <v>445429841</v>
       </c>
       <c r="B109" s="2">
-        <v>45554.56259259259</v>
+        <v>45568.57361111111</v>
       </c>
       <c r="C109" s="2">
-        <v>45555</v>
+        <v>45572</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="G109">
-        <v>62.0726</v>
+        <v>337.65</v>
       </c>
       <c r="H109">
-        <v>62.07</v>
+        <v>337.65</v>
       </c>
       <c r="I109">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>1.35</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>435165980</v>
+        <v>445429174</v>
       </c>
       <c r="B110" s="2">
-        <v>45541.475370370375</v>
+        <v>45568.57231481481</v>
       </c>
       <c r="C110" s="2">
-        <v>45545</v>
+        <v>45569</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -3971,77 +3971,77 @@
         <v>11</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>369.23</v>
       </c>
       <c r="G110">
-        <v>103.72</v>
+        <v>0.90605</v>
       </c>
       <c r="H110">
-        <v>103.72</v>
+        <v>334.54</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>435165968</v>
+        <v>444353954</v>
       </c>
       <c r="B111" s="2">
-        <v>45541.47508101852</v>
+        <v>45566.58853009259</v>
       </c>
       <c r="C111" s="2">
-        <v>45544</v>
+        <v>45568</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
       <c r="F111">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0.9011</v>
+        <v>108.24</v>
       </c>
       <c r="H111">
-        <v>0.19</v>
+        <v>108.24</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>435165951</v>
+        <v>444310921</v>
       </c>
       <c r="B112" s="2">
-        <v>45541.47487268518</v>
+        <v>45566.29953703703</v>
       </c>
       <c r="C112" s="2">
-        <v>45544</v>
+        <v>45567</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
       <c r="F112">
-        <v>4.42</v>
+        <v>60.56</v>
       </c>
       <c r="G112">
-        <v>0.90109</v>
+        <v>0.89984</v>
       </c>
       <c r="H112">
-        <v>3.98</v>
+        <v>54.49</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4052,77 +4052,77 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>435165927</v>
+        <v>439936166</v>
       </c>
       <c r="B113" s="2">
-        <v>45541.474652777775</v>
+        <v>45554.56259259259</v>
       </c>
       <c r="C113" s="2">
-        <v>45544</v>
+        <v>45555</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F113">
-        <v>92.77</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0.90109</v>
+        <v>62.0726</v>
       </c>
       <c r="H113">
-        <v>83.59</v>
+        <v>62.07</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>434675474</v>
+        <v>435165980</v>
       </c>
       <c r="B114" s="2">
-        <v>45540.54484953704</v>
+        <v>45541.475370370375</v>
       </c>
       <c r="C114" s="2">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>3.689</v>
+        <v>103.72</v>
       </c>
       <c r="H114">
-        <v>29.51</v>
+        <v>103.72</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>434162210</v>
+        <v>435165968</v>
       </c>
       <c r="B115" s="2">
-        <v>45539.43609953704</v>
+        <v>45541.47508101852</v>
       </c>
       <c r="C115" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -4131,62 +4131,62 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.21</v>
       </c>
       <c r="G115">
-        <v>104.42</v>
+        <v>0.9011</v>
       </c>
       <c r="H115">
-        <v>104.42</v>
+        <v>0.19</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>433696199</v>
+        <v>435165951</v>
       </c>
       <c r="B116" s="2">
-        <v>45538.68898148148</v>
+        <v>45541.47487268518</v>
       </c>
       <c r="C116" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D116" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>4.42</v>
       </c>
       <c r="G116">
-        <v>110.122</v>
+        <v>0.90109</v>
       </c>
       <c r="H116">
-        <v>110.12</v>
+        <v>3.98</v>
       </c>
       <c r="I116">
-        <v>-10.76</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>433626785</v>
+        <v>435165927</v>
       </c>
       <c r="B117" s="2">
-        <v>45538.39231481482</v>
+        <v>45541.474652777775</v>
       </c>
       <c r="C117" s="2">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -4195,65 +4195,65 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>92.77</v>
       </c>
       <c r="G117">
-        <v>106.54</v>
+        <v>0.90109</v>
       </c>
       <c r="H117">
-        <v>106.54</v>
+        <v>83.59</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>433626678</v>
+        <v>434675474</v>
       </c>
       <c r="B118" s="2">
-        <v>45538.391076388885</v>
+        <v>45540.54484953704</v>
       </c>
       <c r="C118" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>73.9</v>
+        <v>8</v>
       </c>
       <c r="G118">
-        <v>0.90603</v>
+        <v>3.689</v>
       </c>
       <c r="H118">
-        <v>66.96</v>
+        <v>29.51</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>432518350</v>
+        <v>434162210</v>
       </c>
       <c r="B119" s="2">
-        <v>45533.56263888889</v>
+        <v>45539.43609953704</v>
       </c>
       <c r="C119" s="2">
-        <v>45533</v>
+        <v>45541</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -4262,91 +4262,91 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>120.88</v>
+        <v>104.42</v>
       </c>
       <c r="H119">
-        <v>120.88</v>
+        <v>104.42</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>432515426</v>
+        <v>433696199</v>
       </c>
       <c r="B120" s="2">
-        <v>45533.54127314815</v>
+        <v>45538.68898148148</v>
       </c>
       <c r="C120" s="2">
-        <v>45537</v>
+        <v>45539</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120">
-        <v>106.34</v>
+        <v>110.122</v>
       </c>
       <c r="H120">
-        <v>106.34</v>
+        <v>110.12</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>-10.76</v>
       </c>
       <c r="J120">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>432005364</v>
+        <v>433626785</v>
       </c>
       <c r="B121" s="2">
-        <v>45532.39208333333</v>
+        <v>45538.39231481482</v>
       </c>
       <c r="C121" s="2">
-        <v>45534</v>
+        <v>45540</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>3.632</v>
+        <v>106.54</v>
       </c>
       <c r="H121">
-        <v>116.22</v>
+        <v>106.54</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>432003333</v>
+        <v>433626678</v>
       </c>
       <c r="B122" s="2">
-        <v>45532.363020833334</v>
+        <v>45538.391076388885</v>
       </c>
       <c r="C122" s="2">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -4355,158 +4355,158 @@
         <v>11</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>73.9</v>
       </c>
       <c r="G122">
-        <v>106.74</v>
+        <v>0.90603</v>
       </c>
       <c r="H122">
-        <v>213.48</v>
+        <v>66.96</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>432003262</v>
+        <v>432518350</v>
       </c>
       <c r="B123" s="2">
-        <v>45532.361875</v>
+        <v>45533.56263888889</v>
       </c>
       <c r="C123" s="2">
         <v>45533</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
       <c r="F123">
-        <v>618.74</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0.89741</v>
+        <v>120.88</v>
       </c>
       <c r="H123">
-        <v>555.26</v>
+        <v>120.88</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>430366906</v>
+        <v>432515426</v>
       </c>
       <c r="B124" s="2">
-        <v>45527.29204861111</v>
+        <v>45533.54127314815</v>
       </c>
       <c r="C124" s="2">
-        <v>45532</v>
+        <v>45537</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>3.6305</v>
+        <v>106.34</v>
       </c>
       <c r="H124">
-        <v>10.89</v>
+        <v>106.34</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>430365249</v>
+        <v>432005364</v>
       </c>
       <c r="B125" s="2">
-        <v>45527.27630787037</v>
+        <v>45532.39208333333</v>
       </c>
       <c r="C125" s="2">
-        <v>45530</v>
+        <v>45534</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="F125">
-        <v>4.63</v>
+        <v>32</v>
       </c>
       <c r="G125">
-        <v>0.8999</v>
+        <v>3.632</v>
       </c>
       <c r="H125">
-        <v>4.17</v>
+        <v>116.22</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>428453232</v>
+        <v>432003333</v>
       </c>
       <c r="B126" s="2">
-        <v>45523.56253472222</v>
+        <v>45532.363020833334</v>
       </c>
       <c r="C126" s="2">
-        <v>45524</v>
+        <v>45534</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>60.046</v>
+        <v>106.74</v>
       </c>
       <c r="H126">
-        <v>60.05</v>
+        <v>213.48</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>428444212</v>
+        <v>432003262</v>
       </c>
       <c r="B127" s="2">
-        <v>45523.47152777778</v>
+        <v>45532.361875</v>
       </c>
       <c r="C127" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
@@ -4515,77 +4515,77 @@
         <v>11</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>618.74</v>
       </c>
       <c r="G127">
-        <v>105.3</v>
+        <v>0.89741</v>
       </c>
       <c r="H127">
-        <v>105.3</v>
+        <v>555.26</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>428437042</v>
+        <v>430366906</v>
       </c>
       <c r="B128" s="2">
-        <v>45523.37878472223</v>
+        <v>45527.29204861111</v>
       </c>
       <c r="C128" s="2">
-        <v>45524</v>
+        <v>45532</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
       <c r="F128">
-        <v>7.15</v>
+        <v>3</v>
       </c>
       <c r="G128">
-        <v>0.90756</v>
+        <v>3.6305</v>
       </c>
       <c r="H128">
-        <v>6.49</v>
+        <v>10.89</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>428437005</v>
+        <v>430365249</v>
       </c>
       <c r="B129" s="2">
-        <v>45523.37849537037</v>
+        <v>45527.27630787037</v>
       </c>
       <c r="C129" s="2">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129">
-        <v>150.15</v>
+        <v>4.63</v>
       </c>
       <c r="G129">
-        <v>0.90756</v>
+        <v>0.8999</v>
       </c>
       <c r="H129">
-        <v>136.27</v>
+        <v>4.17</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -4596,16 +4596,16 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>426418112</v>
+        <v>428453232</v>
       </c>
       <c r="B130" s="2">
-        <v>45517.58078703703</v>
+        <v>45523.56253472222</v>
       </c>
       <c r="C130" s="2">
-        <v>45519</v>
+        <v>45524</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -4614,74 +4614,74 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>102.02</v>
+        <v>60.046</v>
       </c>
       <c r="H130">
-        <v>102.02</v>
+        <v>60.05</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>426417966</v>
+        <v>428444212</v>
       </c>
       <c r="B131" s="2">
-        <v>45517.58042824074</v>
+        <v>45523.47152777778</v>
       </c>
       <c r="C131" s="2">
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>10.45</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>0.91439</v>
+        <v>105.3</v>
       </c>
       <c r="H131">
-        <v>9.56</v>
+        <v>105.3</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>426416264</v>
+        <v>428437042</v>
       </c>
       <c r="B132" s="2">
-        <v>45517.57699074074</v>
+        <v>45523.37878472223</v>
       </c>
       <c r="C132" s="2">
-        <v>45518</v>
+        <v>45524</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
       </c>
       <c r="F132">
-        <v>4.86</v>
+        <v>7.15</v>
       </c>
       <c r="G132">
-        <v>0.91458</v>
+        <v>0.90756</v>
       </c>
       <c r="H132">
-        <v>4.44</v>
+        <v>6.49</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4692,33 +4692,161 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
+        <v>428437005</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45523.37849537037</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45524</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133">
+        <v>150.15</v>
+      </c>
+      <c r="G133">
+        <v>0.90756</v>
+      </c>
+      <c r="H133">
+        <v>136.27</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>426418112</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45517.58078703703</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45519</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>102.02</v>
+      </c>
+      <c r="H134">
+        <v>102.02</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>426417966</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45517.58042824074</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135">
+        <v>10.45</v>
+      </c>
+      <c r="G135">
+        <v>0.91439</v>
+      </c>
+      <c r="H135">
+        <v>9.56</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>426416264</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45517.57699074074</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45518</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>4.86</v>
+      </c>
+      <c r="G136">
+        <v>0.91458</v>
+      </c>
+      <c r="H136">
+        <v>4.44</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>426416183</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B137" s="2">
         <v>45517.576678240745</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C137" s="2">
         <v>45518</v>
       </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133">
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137">
         <v>102.05</v>
       </c>
-      <c r="G133">
+      <c r="G137">
         <v>0.91459</v>
       </c>
-      <c r="H133">
+      <c r="H137">
         <v>93.33</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
         <v>0</v>
       </c>
     </row>
